--- a/cssPMLReport.xlsx
+++ b/cssPMLReport.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>Office: DILG IV-A CALABARZON</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Procedure Title/Service Provided: Provision of TA on ICT Resources</t>
   </si>
   <si>
-    <t>Covered Period:February 2021</t>
+    <t>Covered Period:April 2021</t>
   </si>
   <si>
     <t>NO.</t>
@@ -91,25 +91,115 @@
 (Indicate Reason if Target is unmet)</t>
   </si>
   <si>
-    <t>DENNIS CASTILLO</t>
+    <t>JOYCE SAAVEDRA</t>
   </si>
   <si>
-    <t>February 01, 2021</t>
+    <t>April 06, 2021</t>
   </si>
   <si>
     <t>Free of charge</t>
   </si>
   <si>
-    <t>JUDY ANN  SILVA</t>
+    <t>THELMA BEÃ‘ABON</t>
   </si>
   <si>
-    <t>MYLA MANIBO</t>
+    <t>HANNAH GRACE GUERRERO</t>
   </si>
   <si>
-    <t>MONETTE LANDICHO</t>
+    <t>April 08, 2021</t>
+  </si>
+  <si>
+    <t>JOHN LAURENCE GONZALES</t>
+  </si>
+  <si>
+    <t>April 12, 2021</t>
+  </si>
+  <si>
+    <t>SHARMAINE MAE CATAPANG</t>
+  </si>
+  <si>
+    <t>April 14, 2021</t>
+  </si>
+  <si>
+    <t>MARIKO IWAKI</t>
+  </si>
+  <si>
+    <t>April 19, 2021</t>
+  </si>
+  <si>
+    <t>RENZ HARRY TOLEDO</t>
+  </si>
+  <si>
+    <t>April 07, 2021</t>
+  </si>
+  <si>
+    <t>April 27, 2021</t>
+  </si>
+  <si>
+    <t>KRISTOFFER MOJICA</t>
+  </si>
+  <si>
+    <t>April 28, 2021</t>
   </si>
   <si>
     <t>RAFAEL SATURNO</t>
+  </si>
+  <si>
+    <t>April 22, 2021</t>
+  </si>
+  <si>
+    <t>CAMILLE GATDULA</t>
+  </si>
+  <si>
+    <t>April 29, 2021</t>
+  </si>
+  <si>
+    <t>JOHN PAUL NIEVA</t>
+  </si>
+  <si>
+    <t>EQUILA JESSA ALFORJA</t>
+  </si>
+  <si>
+    <t>MARIELLE ANN ODCHIGUE</t>
+  </si>
+  <si>
+    <t>MARIA MELODY ZAMORA</t>
+  </si>
+  <si>
+    <t>April 30, 2021</t>
+  </si>
+  <si>
+    <t>ARLANE MAE DEVERA</t>
+  </si>
+  <si>
+    <t>April 13, 2021</t>
+  </si>
+  <si>
+    <t>JOEL GAONA</t>
+  </si>
+  <si>
+    <t>April 16, 2021</t>
+  </si>
+  <si>
+    <t>CHERIELYN PORRAS</t>
+  </si>
+  <si>
+    <t>April 15, 2021</t>
+  </si>
+  <si>
+    <t>CRISTEL MARIE FISCAL</t>
+  </si>
+  <si>
+    <t>SHEENA MISTEE ALEGRE</t>
+  </si>
+  <si>
+    <t>JUDE EMPRESE</t>
+  </si>
+  <si>
+    <t>CAMILLE ANGELIE BULURAN</t>
+  </si>
+  <si>
+    <t>ANGELICA GRUESO</t>
   </si>
   <si>
     <t>Approved By:</t>
@@ -118,7 +208,7 @@
     <t>MAYBELLINE M. MONTEIRO</t>
   </si>
   <si>
-    <t>Date:May 10, 2021</t>
+    <t>Date:May 11, 2021</t>
   </si>
   <si>
     <t>Position</t>
@@ -305,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -335,18 +425,6 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -384,25 +462,31 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -772,7 +856,7 @@
   <dimension ref="A1:Y979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="80" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -862,28 +946,28 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
     </row>
     <row r="4" spans="1:25" customHeight="1" ht="14.25">
       <c r="A4" s="1"/>
@@ -940,24 +1024,24 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" customHeight="1" ht="15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -969,24 +1053,24 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" customHeight="1" ht="15">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -998,24 +1082,24 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1054,32 +1138,32 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" customHeight="1" ht="27">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="22" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="19" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="Q10" s="2"/>
@@ -1093,46 +1177,46 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:25" customHeight="1" ht="76.5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="15"/>
+      <c r="P11" s="11"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -1144,22 +1228,22 @@
       <c r="Y11" s="2"/>
     </row>
     <row r="12" spans="1:25" customHeight="1" ht="33.75">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -1181,28 +1265,28 @@
         <v>22</v>
       </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K13" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L13" s="4" t="str">
         <f>AVERAGE(D13:K13)</f>
@@ -1282,7 +1366,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4">
         <v>5</v>
@@ -1331,10 +1415,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4">
         <v>5</v>
@@ -1355,10 +1439,10 @@
         <v>5</v>
       </c>
       <c r="J16" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L16" s="4" t="str">
         <f>AVERAGE(D16:K16)</f>
@@ -1383,31 +1467,35 @@
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="4">
-        <v>3</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
       <c r="L17" s="4" t="str">
         <f>AVERAGE(D17:K17)</f>
         <v>0</v>
@@ -1426,24 +1514,49 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="1"/>
+    <row r="18" spans="1:25" customHeight="1" ht="25">
+      <c r="A18" s="5">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4" t="str">
+        <f>AVERAGE(D18:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="9"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -1453,24 +1566,49 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="1"/>
+    <row r="19" spans="1:25" customHeight="1" ht="25">
+      <c r="A19" s="5">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="4">
+        <v>5</v>
+      </c>
+      <c r="J19" s="4">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <f>AVERAGE(D19:K19)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="9"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -1480,24 +1618,49 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="1"/>
+    <row r="20" spans="1:25" customHeight="1" ht="25">
+      <c r="A20" s="5">
+        <v>8</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4" t="str">
+        <f>AVERAGE(D20:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="9"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -1507,24 +1670,49 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="1"/>
+    <row r="21" spans="1:25" customHeight="1" ht="25">
+      <c r="A21" s="5">
+        <v>9</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4" t="str">
+        <f>AVERAGE(D21:K21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -1534,24 +1722,49 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="1"/>
+    <row r="22" spans="1:25" customHeight="1" ht="25">
+      <c r="A22" s="5">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="4">
+        <v>5</v>
+      </c>
+      <c r="J22" s="4">
+        <v>5</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4" t="str">
+        <f>AVERAGE(D22:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="9"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -1561,24 +1774,49 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="1"/>
+    <row r="23" spans="1:25" customHeight="1" ht="25">
+      <c r="A23" s="5">
+        <v>11</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="4">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4" t="str">
+        <f>AVERAGE(D23:K23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -1588,24 +1826,49 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="1"/>
+    <row r="24" spans="1:25" customHeight="1" ht="25">
+      <c r="A24" s="5">
+        <v>12</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4" t="str">
+        <f>AVERAGE(D24:K24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="9"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -1615,24 +1878,49 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="1"/>
+    <row r="25" spans="1:25" customHeight="1" ht="25">
+      <c r="A25" s="5">
+        <v>13</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4">
+        <v>4</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="4">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4">
+        <v>5</v>
+      </c>
+      <c r="K25" s="4">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4" t="str">
+        <f>AVERAGE(D25:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="9"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -1642,24 +1930,49 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="1"/>
+    <row r="26" spans="1:25" customHeight="1" ht="25">
+      <c r="A26" s="5">
+        <v>14</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="4">
+        <v>5</v>
+      </c>
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4" t="str">
+        <f>AVERAGE(D26:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="9"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -1669,24 +1982,49 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="1"/>
+    <row r="27" spans="1:25" customHeight="1" ht="25">
+      <c r="A27" s="5">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="4">
+        <v>5</v>
+      </c>
+      <c r="J27" s="4">
+        <v>5</v>
+      </c>
+      <c r="K27" s="4">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4" t="str">
+        <f>AVERAGE(D27:K27)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="9"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -1696,24 +2034,49 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="1"/>
+    <row r="28" spans="1:25" customHeight="1" ht="25">
+      <c r="A28" s="5">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="4">
+        <v>5</v>
+      </c>
+      <c r="J28" s="4">
+        <v>5</v>
+      </c>
+      <c r="K28" s="4">
+        <v>5</v>
+      </c>
+      <c r="L28" s="4" t="str">
+        <f>AVERAGE(D28:K28)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="9"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -1723,24 +2086,49 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="1"/>
+    <row r="29" spans="1:25" customHeight="1" ht="25">
+      <c r="A29" s="5">
+        <v>17</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4">
+        <v>5</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="4">
+        <v>5</v>
+      </c>
+      <c r="J29" s="4">
+        <v>5</v>
+      </c>
+      <c r="K29" s="4">
+        <v>5</v>
+      </c>
+      <c r="L29" s="4" t="str">
+        <f>AVERAGE(D29:K29)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -1750,26 +2138,49 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="1"/>
+    <row r="30" spans="1:25" customHeight="1" ht="25">
+      <c r="A30" s="5">
+        <v>18</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>5</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="4">
+        <v>5</v>
+      </c>
+      <c r="J30" s="4">
+        <v>5</v>
+      </c>
+      <c r="K30" s="4">
+        <v>5</v>
+      </c>
+      <c r="L30" s="4" t="str">
+        <f>AVERAGE(D30:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -1779,24 +2190,49 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="1"/>
+    <row r="31" spans="1:25" customHeight="1" ht="25">
+      <c r="A31" s="5">
+        <v>19</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="4">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="4">
+        <v>3</v>
+      </c>
+      <c r="J31" s="4">
+        <v>3</v>
+      </c>
+      <c r="K31" s="4">
+        <v>3</v>
+      </c>
+      <c r="L31" s="4" t="str">
+        <f>AVERAGE(D31:K31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="9"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -1806,24 +2242,49 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="1"/>
+    <row r="32" spans="1:25" customHeight="1" ht="25">
+      <c r="A32" s="5">
+        <v>20</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="4">
+        <v>5</v>
+      </c>
+      <c r="J32" s="4">
+        <v>5</v>
+      </c>
+      <c r="K32" s="4">
+        <v>5</v>
+      </c>
+      <c r="L32" s="4" t="str">
+        <f>AVERAGE(D32:K32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -1833,24 +2294,49 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="1"/>
+    <row r="33" spans="1:25" customHeight="1" ht="25">
+      <c r="A33" s="5">
+        <v>21</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="4">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5</v>
+      </c>
+      <c r="G33" s="4">
+        <v>5</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="4">
+        <v>5</v>
+      </c>
+      <c r="J33" s="4">
+        <v>5</v>
+      </c>
+      <c r="K33" s="4">
+        <v>5</v>
+      </c>
+      <c r="L33" s="4" t="str">
+        <f>AVERAGE(D33:K33)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="9"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -1860,24 +2346,49 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="1"/>
+    <row r="34" spans="1:25" customHeight="1" ht="25">
+      <c r="A34" s="5">
+        <v>22</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="4">
+        <v>5</v>
+      </c>
+      <c r="E34" s="4">
+        <v>5</v>
+      </c>
+      <c r="F34" s="4">
+        <v>5</v>
+      </c>
+      <c r="G34" s="4">
+        <v>5</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="4">
+        <v>5</v>
+      </c>
+      <c r="J34" s="4">
+        <v>5</v>
+      </c>
+      <c r="K34" s="4">
+        <v>5</v>
+      </c>
+      <c r="L34" s="4" t="str">
+        <f>AVERAGE(D34:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="9"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -1887,26 +2398,49 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="1"/>
+    <row r="35" spans="1:25" customHeight="1" ht="25">
+      <c r="A35" s="5">
+        <v>23</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="4">
+        <v>5</v>
+      </c>
+      <c r="E35" s="4">
+        <v>5</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5</v>
+      </c>
+      <c r="G35" s="4">
+        <v>5</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="4">
+        <v>5</v>
+      </c>
+      <c r="J35" s="4">
+        <v>5</v>
+      </c>
+      <c r="K35" s="4">
+        <v>5</v>
+      </c>
+      <c r="L35" s="4" t="str">
+        <f>AVERAGE(D35:K35)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -1916,24 +2450,49 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="1"/>
+    <row r="36" spans="1:25" customHeight="1" ht="25">
+      <c r="A36" s="5">
+        <v>24</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5</v>
+      </c>
+      <c r="E36" s="4">
+        <v>5</v>
+      </c>
+      <c r="F36" s="4">
+        <v>5</v>
+      </c>
+      <c r="G36" s="4">
+        <v>5</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="4">
+        <v>5</v>
+      </c>
+      <c r="J36" s="4">
+        <v>5</v>
+      </c>
+      <c r="K36" s="4">
+        <v>5</v>
+      </c>
+      <c r="L36" s="4" t="str">
+        <f>AVERAGE(D36:K36)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="9"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -1943,26 +2502,49 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="1"/>
+    <row r="37" spans="1:25" customHeight="1" ht="25">
+      <c r="A37" s="5">
+        <v>25</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="4">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5</v>
+      </c>
+      <c r="F37" s="4">
+        <v>5</v>
+      </c>
+      <c r="G37" s="4">
+        <v>5</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="4">
+        <v>5</v>
+      </c>
+      <c r="J37" s="4">
+        <v>5</v>
+      </c>
+      <c r="K37" s="4">
+        <v>5</v>
+      </c>
+      <c r="L37" s="4" t="str">
+        <f>AVERAGE(D37:K37)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -1972,26 +2554,49 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="1"/>
+    <row r="38" spans="1:25" customHeight="1" ht="25">
+      <c r="A38" s="5">
+        <v>26</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5</v>
+      </c>
+      <c r="E38" s="4">
+        <v>5</v>
+      </c>
+      <c r="F38" s="4">
+        <v>5</v>
+      </c>
+      <c r="G38" s="4">
+        <v>5</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="4">
+        <v>5</v>
+      </c>
+      <c r="J38" s="4">
+        <v>5</v>
+      </c>
+      <c r="K38" s="4">
+        <v>5</v>
+      </c>
+      <c r="L38" s="4" t="str">
+        <f>AVERAGE(D38:K38)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="9"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -2001,24 +2606,49 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="1"/>
+    <row r="39" spans="1:25" customHeight="1" ht="25">
+      <c r="A39" s="5">
+        <v>27</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="4">
+        <v>5</v>
+      </c>
+      <c r="E39" s="4">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4">
+        <v>5</v>
+      </c>
+      <c r="G39" s="4">
+        <v>5</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="4">
+        <v>5</v>
+      </c>
+      <c r="J39" s="4">
+        <v>5</v>
+      </c>
+      <c r="K39" s="4">
+        <v>5</v>
+      </c>
+      <c r="L39" s="4" t="str">
+        <f>AVERAGE(D39:K39)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="9"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -2028,24 +2658,49 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="1"/>
+    <row r="40" spans="1:25" customHeight="1" ht="25">
+      <c r="A40" s="5">
+        <v>28</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="4">
+        <v>5</v>
+      </c>
+      <c r="E40" s="4">
+        <v>5</v>
+      </c>
+      <c r="F40" s="4">
+        <v>5</v>
+      </c>
+      <c r="G40" s="4">
+        <v>5</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="4">
+        <v>5</v>
+      </c>
+      <c r="J40" s="4">
+        <v>5</v>
+      </c>
+      <c r="K40" s="4">
+        <v>5</v>
+      </c>
+      <c r="L40" s="4" t="str">
+        <f>AVERAGE(D40:K40)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="9"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -2055,24 +2710,49 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="1"/>
+    <row r="41" spans="1:25" customHeight="1" ht="25">
+      <c r="A41" s="5">
+        <v>29</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5</v>
+      </c>
+      <c r="E41" s="4">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4">
+        <v>5</v>
+      </c>
+      <c r="G41" s="4">
+        <v>5</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="4">
+        <v>5</v>
+      </c>
+      <c r="J41" s="4">
+        <v>5</v>
+      </c>
+      <c r="K41" s="4">
+        <v>5</v>
+      </c>
+      <c r="L41" s="4" t="str">
+        <f>AVERAGE(D41:K41)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="9"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -2082,24 +2762,49 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="1"/>
+    <row r="42" spans="1:25" customHeight="1" ht="25">
+      <c r="A42" s="5">
+        <v>30</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="4">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4">
+        <v>5</v>
+      </c>
+      <c r="F42" s="4">
+        <v>5</v>
+      </c>
+      <c r="G42" s="4">
+        <v>5</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="4">
+        <v>5</v>
+      </c>
+      <c r="J42" s="4">
+        <v>5</v>
+      </c>
+      <c r="K42" s="4">
+        <v>5</v>
+      </c>
+      <c r="L42" s="4" t="str">
+        <f>AVERAGE(D42:K42)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="9"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -2109,24 +2814,49 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="1"/>
+    <row r="43" spans="1:25" customHeight="1" ht="25">
+      <c r="A43" s="5">
+        <v>31</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="4">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4">
+        <v>5</v>
+      </c>
+      <c r="F43" s="4">
+        <v>5</v>
+      </c>
+      <c r="G43" s="4">
+        <v>5</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="4">
+        <v>5</v>
+      </c>
+      <c r="J43" s="4">
+        <v>5</v>
+      </c>
+      <c r="K43" s="4">
+        <v>5</v>
+      </c>
+      <c r="L43" s="4" t="str">
+        <f>AVERAGE(D43:K43)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="9"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -2136,24 +2866,49 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="1"/>
+    <row r="44" spans="1:25" customHeight="1" ht="25">
+      <c r="A44" s="5">
+        <v>32</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="4">
+        <v>5</v>
+      </c>
+      <c r="E44" s="4">
+        <v>5</v>
+      </c>
+      <c r="F44" s="4">
+        <v>5</v>
+      </c>
+      <c r="G44" s="4">
+        <v>5</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="4">
+        <v>5</v>
+      </c>
+      <c r="J44" s="4">
+        <v>5</v>
+      </c>
+      <c r="K44" s="4">
+        <v>5</v>
+      </c>
+      <c r="L44" s="4" t="str">
+        <f>AVERAGE(D44:K44)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="9"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -2163,24 +2918,49 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="1"/>
+    <row r="45" spans="1:25" customHeight="1" ht="25">
+      <c r="A45" s="5">
+        <v>33</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="4">
+        <v>5</v>
+      </c>
+      <c r="E45" s="4">
+        <v>5</v>
+      </c>
+      <c r="F45" s="4">
+        <v>5</v>
+      </c>
+      <c r="G45" s="4">
+        <v>5</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="4">
+        <v>5</v>
+      </c>
+      <c r="J45" s="4">
+        <v>5</v>
+      </c>
+      <c r="K45" s="4">
+        <v>5</v>
+      </c>
+      <c r="L45" s="4" t="str">
+        <f>AVERAGE(D45:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="9"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2190,24 +2970,49 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="1"/>
+    <row r="46" spans="1:25" customHeight="1" ht="25">
+      <c r="A46" s="5">
+        <v>34</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="4">
+        <v>5</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5</v>
+      </c>
+      <c r="F46" s="4">
+        <v>5</v>
+      </c>
+      <c r="G46" s="4">
+        <v>5</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="4">
+        <v>5</v>
+      </c>
+      <c r="J46" s="4">
+        <v>5</v>
+      </c>
+      <c r="K46" s="4">
+        <v>5</v>
+      </c>
+      <c r="L46" s="4" t="str">
+        <f>AVERAGE(D46:K46)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="9"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -2217,24 +3022,49 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="1"/>
+    <row r="47" spans="1:25" customHeight="1" ht="25">
+      <c r="A47" s="5">
+        <v>35</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="4">
+        <v>5</v>
+      </c>
+      <c r="E47" s="4">
+        <v>5</v>
+      </c>
+      <c r="F47" s="4">
+        <v>5</v>
+      </c>
+      <c r="G47" s="4">
+        <v>5</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="4">
+        <v>4</v>
+      </c>
+      <c r="J47" s="4">
+        <v>4</v>
+      </c>
+      <c r="K47" s="4">
+        <v>4</v>
+      </c>
+      <c r="L47" s="4" t="str">
+        <f>AVERAGE(D47:K47)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="9"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -2245,23 +3075,42 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="1"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="4">
+        <v>4</v>
+      </c>
+      <c r="E48" s="4">
+        <v>4</v>
+      </c>
+      <c r="F48" s="4">
+        <v>4</v>
+      </c>
+      <c r="G48" s="4">
+        <v>4</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="4">
+        <v>4</v>
+      </c>
+      <c r="J48" s="4">
+        <v>4</v>
+      </c>
+      <c r="K48" s="4">
+        <v>4</v>
+      </c>
+      <c r="L48" s="4" t="str">
+        <f>AVERAGE(D48:K48)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="9"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -2272,23 +3121,42 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9">
+        <v>4</v>
+      </c>
+      <c r="E49" s="9">
+        <v>4</v>
+      </c>
+      <c r="F49" s="9">
+        <v>4</v>
+      </c>
+      <c r="G49" s="9">
+        <v>4</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="9">
+        <v>4</v>
+      </c>
+      <c r="J49" s="9">
+        <v>4</v>
+      </c>
+      <c r="K49" s="9">
+        <v>4</v>
+      </c>
+      <c r="L49" s="9" t="str">
+        <f>AVERAGE(D49:K49)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -2299,23 +3167,42 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9">
+        <v>4</v>
+      </c>
+      <c r="E50" s="9">
+        <v>4</v>
+      </c>
+      <c r="F50" s="9">
+        <v>4</v>
+      </c>
+      <c r="G50" s="9">
+        <v>4</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="9">
+        <v>4</v>
+      </c>
+      <c r="J50" s="9">
+        <v>4</v>
+      </c>
+      <c r="K50" s="9">
+        <v>4</v>
+      </c>
+      <c r="L50" s="9" t="str">
+        <f>AVERAGE(D50:K50)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -2326,23 +3213,42 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9">
+        <v>4</v>
+      </c>
+      <c r="E51" s="9">
+        <v>4</v>
+      </c>
+      <c r="F51" s="9">
+        <v>4</v>
+      </c>
+      <c r="G51" s="9">
+        <v>4</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="9">
+        <v>4</v>
+      </c>
+      <c r="J51" s="9">
+        <v>4</v>
+      </c>
+      <c r="K51" s="9">
+        <v>4</v>
+      </c>
+      <c r="L51" s="9" t="str">
+        <f>AVERAGE(D51:K51)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -2353,23 +3259,42 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9">
+        <v>4</v>
+      </c>
+      <c r="E52" s="9">
+        <v>4</v>
+      </c>
+      <c r="F52" s="9">
+        <v>4</v>
+      </c>
+      <c r="G52" s="9">
+        <v>4</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="9">
+        <v>4</v>
+      </c>
+      <c r="J52" s="9">
+        <v>4</v>
+      </c>
+      <c r="K52" s="9">
+        <v>4</v>
+      </c>
+      <c r="L52" s="9" t="str">
+        <f>AVERAGE(D52:K52)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -2380,23 +3305,42 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9">
+        <v>4</v>
+      </c>
+      <c r="E53" s="9">
+        <v>4</v>
+      </c>
+      <c r="F53" s="9">
+        <v>4</v>
+      </c>
+      <c r="G53" s="9">
+        <v>4</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="9">
+        <v>4</v>
+      </c>
+      <c r="J53" s="9">
+        <v>4</v>
+      </c>
+      <c r="K53" s="9">
+        <v>4</v>
+      </c>
+      <c r="L53" s="9" t="str">
+        <f>AVERAGE(D53:K53)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -2407,23 +3351,42 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9">
+        <v>4</v>
+      </c>
+      <c r="E54" s="9">
+        <v>4</v>
+      </c>
+      <c r="F54" s="9">
+        <v>4</v>
+      </c>
+      <c r="G54" s="9">
+        <v>4</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="9">
+        <v>5</v>
+      </c>
+      <c r="J54" s="9">
+        <v>5</v>
+      </c>
+      <c r="K54" s="9">
+        <v>5</v>
+      </c>
+      <c r="L54" s="9" t="str">
+        <f>AVERAGE(D54:K54)</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -2434,23 +3397,42 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9">
+        <v>5</v>
+      </c>
+      <c r="E55" s="9">
+        <v>5</v>
+      </c>
+      <c r="F55" s="9">
+        <v>5</v>
+      </c>
+      <c r="G55" s="9">
+        <v>5</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="9">
+        <v>5</v>
+      </c>
+      <c r="J55" s="9">
+        <v>5</v>
+      </c>
+      <c r="K55" s="9">
+        <v>5</v>
+      </c>
+      <c r="L55" s="9" t="str">
+        <f>AVERAGE(D55:K55)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -2461,23 +3443,42 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9">
+        <v>5</v>
+      </c>
+      <c r="E56" s="9">
+        <v>5</v>
+      </c>
+      <c r="F56" s="9">
+        <v>5</v>
+      </c>
+      <c r="G56" s="9">
+        <v>5</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="9">
+        <v>5</v>
+      </c>
+      <c r="J56" s="9">
+        <v>5</v>
+      </c>
+      <c r="K56" s="9">
+        <v>5</v>
+      </c>
+      <c r="L56" s="9" t="str">
+        <f>AVERAGE(D56:K56)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
@@ -2488,23 +3489,42 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9">
+        <v>5</v>
+      </c>
+      <c r="E57" s="9">
+        <v>4</v>
+      </c>
+      <c r="F57" s="9">
+        <v>5</v>
+      </c>
+      <c r="G57" s="9">
+        <v>5</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="9">
+        <v>4</v>
+      </c>
+      <c r="J57" s="9">
+        <v>5</v>
+      </c>
+      <c r="K57" s="9">
+        <v>5</v>
+      </c>
+      <c r="L57" s="9" t="str">
+        <f>AVERAGE(D57:K57)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -2515,23 +3535,42 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9">
+        <v>5</v>
+      </c>
+      <c r="E58" s="9">
+        <v>4</v>
+      </c>
+      <c r="F58" s="9">
+        <v>5</v>
+      </c>
+      <c r="G58" s="9">
+        <v>5</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="9">
+        <v>5</v>
+      </c>
+      <c r="J58" s="9">
+        <v>5</v>
+      </c>
+      <c r="K58" s="9">
+        <v>5</v>
+      </c>
+      <c r="L58" s="9" t="str">
+        <f>AVERAGE(D58:K58)</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
@@ -2542,23 +3581,42 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9">
+        <v>5</v>
+      </c>
+      <c r="E59" s="9">
+        <v>5</v>
+      </c>
+      <c r="F59" s="9">
+        <v>5</v>
+      </c>
+      <c r="G59" s="9">
+        <v>5</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" s="9">
+        <v>5</v>
+      </c>
+      <c r="J59" s="9">
+        <v>5</v>
+      </c>
+      <c r="K59" s="9">
+        <v>5</v>
+      </c>
+      <c r="L59" s="9" t="str">
+        <f>AVERAGE(D59:K59)</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
@@ -2569,23 +3627,34 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9">
+        <v>5</v>
+      </c>
+      <c r="E60" s="9">
+        <v>5</v>
+      </c>
+      <c r="F60" s="9">
+        <v>5</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9" t="str">
+        <f>AVERAGE(D60:K60)</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
@@ -2923,10 +3992,12 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="G73" s="25"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2950,10 +4021,10 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="D74" s="27"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="G74" s="25"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -2977,10 +4048,10 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="G75" s="25"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3004,10 +4075,10 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="27"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="G76" s="25"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -3031,10 +4102,10 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="G77" s="25"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -3058,10 +4129,12 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="G78" s="25"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -3085,10 +4158,10 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="G79" s="25"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -3112,10 +4185,12 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="28" t="s">
+        <v>60</v>
+      </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="G80" s="25"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -3139,10 +4214,12 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="D81" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="30"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -27433,7 +28510,7 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D73:G73"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.59055118110236" right="0.31496062992126" top="0.70866141732283" bottom="0.51181102362205" header="0" footer="0"/>

--- a/cssPMLReport.xlsx
+++ b/cssPMLReport.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>Office: DILG IV-A CALABARZON</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Procedure Title/Service Provided: Provision of TA on ICT Resources</t>
   </si>
   <si>
-    <t>Covered Period:April 2021</t>
+    <t>Covered Period:February 2021</t>
   </si>
   <si>
     <t>NO.</t>
@@ -91,115 +91,154 @@
 (Indicate Reason if Target is unmet)</t>
   </si>
   <si>
-    <t>JOYCE SAAVEDRA</t>
+    <t>DENNIS CASTILLO</t>
   </si>
   <si>
-    <t>April 06, 2021</t>
+    <t>February 01, 2021</t>
   </si>
   <si>
     <t>Free of charge</t>
   </si>
   <si>
-    <t>THELMA BEÃ‘ABON</t>
+    <t>JUDY ANN  SILVA</t>
   </si>
   <si>
-    <t>HANNAH GRACE GUERRERO</t>
+    <t>MYLA MANIBO</t>
   </si>
   <si>
-    <t>April 08, 2021</t>
+    <t>MONETTE LANDICHO</t>
+  </si>
+  <si>
+    <t>RAFAEL SATURNO</t>
+  </si>
+  <si>
+    <t>JOSEPH GABRIEL ARIATE</t>
+  </si>
+  <si>
+    <t>JORGE ALVIN MONTEIRO</t>
+  </si>
+  <si>
+    <t>February 02, 2021</t>
+  </si>
+  <si>
+    <t>SHARMAINE MAE CATAPANG</t>
+  </si>
+  <si>
+    <t>EMMANUEL OBCIANA</t>
+  </si>
+  <si>
+    <t>February 03, 2021</t>
+  </si>
+  <si>
+    <t>MA CRISTINA GALLAZA</t>
+  </si>
+  <si>
+    <t>ARA MAE SAMIA</t>
+  </si>
+  <si>
+    <t>MILCHA ESPEDILLON</t>
+  </si>
+  <si>
+    <t>February 04, 2021</t>
+  </si>
+  <si>
+    <t>JAYBEE  ACO</t>
+  </si>
+  <si>
+    <t>CRISTEL MARIE FISCAL</t>
+  </si>
+  <si>
+    <t>JENNA LYN CRUZ</t>
+  </si>
+  <si>
+    <t>February 08, 2021</t>
+  </si>
+  <si>
+    <t>NEIL DE OCAMPO</t>
+  </si>
+  <si>
+    <t>February 09, 2021</t>
+  </si>
+  <si>
+    <t>JOYCE SAAVEDRA</t>
+  </si>
+  <si>
+    <t>REUBEN JOSEPH JUSTO</t>
+  </si>
+  <si>
+    <t>February 10, 2021</t>
+  </si>
+  <si>
+    <t>JOY AVILA</t>
+  </si>
+  <si>
+    <t>February 15, 2021</t>
   </si>
   <si>
     <t>JOHN LAURENCE GONZALES</t>
   </si>
   <si>
-    <t>April 12, 2021</t>
-  </si>
-  <si>
-    <t>SHARMAINE MAE CATAPANG</t>
-  </si>
-  <si>
-    <t>April 14, 2021</t>
-  </si>
-  <si>
-    <t>MARIKO IWAKI</t>
-  </si>
-  <si>
-    <t>April 19, 2021</t>
-  </si>
-  <si>
-    <t>RENZ HARRY TOLEDO</t>
-  </si>
-  <si>
-    <t>April 07, 2021</t>
-  </si>
-  <si>
-    <t>April 27, 2021</t>
-  </si>
-  <si>
-    <t>KRISTOFFER MOJICA</t>
-  </si>
-  <si>
-    <t>April 28, 2021</t>
-  </si>
-  <si>
-    <t>RAFAEL SATURNO</t>
-  </si>
-  <si>
-    <t>April 22, 2021</t>
-  </si>
-  <si>
-    <t>CAMILLE GATDULA</t>
-  </si>
-  <si>
-    <t>April 29, 2021</t>
-  </si>
-  <si>
-    <t>JOHN PAUL NIEVA</t>
+    <t>ELVIN JAVIER</t>
   </si>
   <si>
     <t>EQUILA JESSA ALFORJA</t>
   </si>
   <si>
-    <t>MARIELLE ANN ODCHIGUE</t>
+    <t>February 24, 2021</t>
   </si>
   <si>
-    <t>MARIA MELODY ZAMORA</t>
+    <t>HAZEL ELAGO</t>
   </si>
   <si>
-    <t>April 30, 2021</t>
+    <t>February 23, 2021</t>
   </si>
   <si>
-    <t>ARLANE MAE DEVERA</t>
+    <t>HANNAH KRYSTEL CASTRO</t>
   </si>
   <si>
-    <t>April 13, 2021</t>
+    <t>February 22, 2021</t>
   </si>
   <si>
-    <t>JOEL GAONA</t>
+    <t>February 19, 2021</t>
   </si>
   <si>
-    <t>April 16, 2021</t>
+    <t>February 18, 2021</t>
   </si>
   <si>
-    <t>CHERIELYN PORRAS</t>
+    <t>AGNES SANGEL</t>
   </si>
   <si>
-    <t>April 15, 2021</t>
+    <t>February 17, 2021</t>
   </si>
   <si>
-    <t>CRISTEL MARIE FISCAL</t>
+    <t>JOSEPHINE DELA ROSA</t>
   </si>
   <si>
-    <t>SHEENA MISTEE ALEGRE</t>
+    <t>February 16, 2021</t>
   </si>
   <si>
-    <t>JUDE EMPRESE</t>
+    <t>THELMA BENABON</t>
   </si>
   <si>
-    <t>CAMILLE ANGELIE BULURAN</t>
+    <t>ROWEL SANTOS</t>
   </si>
   <si>
-    <t>ANGELICA GRUESO</t>
+    <t>RHEA LEY ABIT</t>
+  </si>
+  <si>
+    <t>RHYIANNE MEJICO</t>
+  </si>
+  <si>
+    <t>FRANZ ALLEN ADEL</t>
+  </si>
+  <si>
+    <t>JHEAN YARA</t>
+  </si>
+  <si>
+    <t>ABEL FULGENCIO</t>
+  </si>
+  <si>
+    <t>February 05, 2021</t>
   </si>
   <si>
     <t>Approved By:</t>
@@ -208,7 +247,7 @@
     <t>MAYBELLINE M. MONTEIRO</t>
   </si>
   <si>
-    <t>Date:May 11, 2021</t>
+    <t>Date:May 25, 2021</t>
   </si>
   <si>
     <t>Position</t>
@@ -395,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -461,9 +500,6 @@
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -1366,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4">
         <v>5</v>
@@ -1415,10 +1451,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4">
         <v>5</v>
@@ -1439,10 +1475,10 @@
         <v>5</v>
       </c>
       <c r="J16" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L16" s="4" t="str">
         <f>AVERAGE(D16:K16)</f>
@@ -1467,28 +1503,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="4">
         <v>5</v>
@@ -1519,10 +1555,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4">
         <v>5</v>
@@ -1571,10 +1607,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4">
         <v>5</v>
@@ -1623,10 +1659,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4">
         <v>5</v>
@@ -1675,10 +1711,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="4">
         <v>5</v>
@@ -1727,10 +1763,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4">
         <v>5</v>
@@ -1779,10 +1815,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4">
         <v>5</v>
@@ -1831,10 +1867,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="4">
         <v>5</v>
@@ -1883,10 +1919,10 @@
         <v>13</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D25" s="4">
         <v>5</v>
@@ -1895,10 +1931,10 @@
         <v>5</v>
       </c>
       <c r="F25" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>23</v>
@@ -1935,10 +1971,10 @@
         <v>14</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D26" s="4">
         <v>5</v>
@@ -1987,7 +2023,7 @@
         <v>15</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>37</v>
@@ -2039,10 +2075,10 @@
         <v>16</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28" s="4">
         <v>5</v>
@@ -2091,10 +2127,10 @@
         <v>17</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4">
         <v>5</v>
@@ -2143,10 +2179,10 @@
         <v>18</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" s="4">
         <v>5</v>
@@ -2195,10 +2231,10 @@
         <v>19</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D31" s="4">
         <v>5</v>
@@ -2216,13 +2252,13 @@
         <v>23</v>
       </c>
       <c r="I31" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K31" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L31" s="4" t="str">
         <f>AVERAGE(D31:K31)</f>
@@ -2247,22 +2283,22 @@
         <v>20</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D32" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F32" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G32" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>23</v>
@@ -2299,10 +2335,10 @@
         <v>21</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D33" s="4">
         <v>5</v>
@@ -2351,10 +2387,10 @@
         <v>22</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D34" s="4">
         <v>5</v>
@@ -2403,10 +2439,10 @@
         <v>23</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D35" s="4">
         <v>5</v>
@@ -2455,10 +2491,10 @@
         <v>24</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D36" s="4">
         <v>5</v>
@@ -2502,15 +2538,15 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" customHeight="1" ht="25">
+    <row r="37" spans="1:25" customHeight="1" ht="10">
       <c r="A37" s="5">
         <v>25</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D37" s="4">
         <v>5</v>
@@ -2559,10 +2595,10 @@
         <v>26</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D38" s="4">
         <v>5</v>
@@ -2611,10 +2647,10 @@
         <v>27</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D39" s="4">
         <v>5</v>
@@ -2663,10 +2699,10 @@
         <v>28</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D40" s="4">
         <v>5</v>
@@ -2718,7 +2754,7 @@
         <v>53</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D41" s="4">
         <v>5</v>
@@ -2767,10 +2803,10 @@
         <v>30</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D42" s="4">
         <v>5</v>
@@ -2822,7 +2858,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D43" s="4">
         <v>5</v>
@@ -2840,13 +2876,13 @@
         <v>23</v>
       </c>
       <c r="I43" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43" s="4">
         <v>5</v>
       </c>
       <c r="K43" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L43" s="4" t="str">
         <f>AVERAGE(D43:K43)</f>
@@ -2871,19 +2907,19 @@
         <v>32</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D44" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" s="4">
         <v>5</v>
@@ -2892,13 +2928,13 @@
         <v>23</v>
       </c>
       <c r="I44" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J44" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K44" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L44" s="4" t="str">
         <f>AVERAGE(D44:K44)</f>
@@ -2923,19 +2959,19 @@
         <v>33</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D45" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45" s="4">
         <v>5</v>
@@ -2947,10 +2983,10 @@
         <v>5</v>
       </c>
       <c r="J45" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K45" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L45" s="4" t="str">
         <f>AVERAGE(D45:K45)</f>
@@ -2975,10 +3011,10 @@
         <v>34</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D46" s="4">
         <v>5</v>
@@ -2987,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" s="4">
         <v>5</v>
@@ -2999,7 +3035,7 @@
         <v>5</v>
       </c>
       <c r="J46" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K46" s="4">
         <v>5</v>
@@ -3027,16 +3063,16 @@
         <v>35</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D47" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" s="4">
         <v>5</v>
@@ -3048,13 +3084,13 @@
         <v>23</v>
       </c>
       <c r="I47" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J47" s="4">
         <v>4</v>
       </c>
       <c r="K47" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L47" s="4" t="str">
         <f>AVERAGE(D47:K47)</f>
@@ -3074,21 +3110,27 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="22"/>
+    <row r="48" spans="1:25" customHeight="1" ht="25">
+      <c r="A48" s="5">
+        <v>36</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D48" s="4">
         <v>4</v>
       </c>
       <c r="E48" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>23</v>
@@ -3100,7 +3142,7 @@
         <v>4</v>
       </c>
       <c r="K48" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L48" s="4" t="str">
         <f>AVERAGE(D48:K48)</f>
@@ -3120,33 +3162,39 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="9"/>
+    <row r="49" spans="1:25" customHeight="1" ht="25">
+      <c r="A49" s="9">
+        <v>37</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="D49" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E49" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" s="9">
         <v>4</v>
       </c>
       <c r="G49" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I49" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J49" s="9">
         <v>4</v>
       </c>
       <c r="K49" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L49" s="9" t="str">
         <f>AVERAGE(D49:K49)</f>
@@ -3166,33 +3214,39 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="9"/>
+    <row r="50" spans="1:25" customHeight="1" ht="25">
+      <c r="A50" s="9">
+        <v>38</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="D50" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I50" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J50" s="9">
         <v>4</v>
       </c>
       <c r="K50" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L50" s="9" t="str">
         <f>AVERAGE(D50:K50)</f>
@@ -3212,33 +3266,39 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="9"/>
+    <row r="51" spans="1:25" customHeight="1" ht="25">
+      <c r="A51" s="9">
+        <v>39</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="D51" s="9">
         <v>4</v>
       </c>
       <c r="E51" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G51" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I51" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J51" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K51" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L51" s="9" t="str">
         <f>AVERAGE(D51:K51)</f>
@@ -3258,33 +3318,39 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="9"/>
+    <row r="52" spans="1:25" customHeight="1" ht="25">
+      <c r="A52" s="9">
+        <v>40</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="D52" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I52" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J52" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K52" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L52" s="9" t="str">
         <f>AVERAGE(D52:K52)</f>
@@ -3304,21 +3370,27 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="9"/>
+    <row r="53" spans="1:25" customHeight="1" ht="25">
+      <c r="A53" s="9">
+        <v>41</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="D53" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E53" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F53" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>23</v>
@@ -3330,7 +3402,7 @@
         <v>4</v>
       </c>
       <c r="K53" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L53" s="9" t="str">
         <f>AVERAGE(D53:K53)</f>
@@ -3350,27 +3422,33 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="9"/>
+    <row r="54" spans="1:25" customHeight="1" ht="25">
+      <c r="A54" s="9">
+        <v>42</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="D54" s="9">
         <v>4</v>
       </c>
       <c r="E54" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F54" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G54" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I54" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J54" s="9">
         <v>5</v>
@@ -3396,10 +3474,16 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="9"/>
+    <row r="55" spans="1:25" customHeight="1" ht="25">
+      <c r="A55" s="9">
+        <v>43</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="D55" s="9">
         <v>5</v>
       </c>
@@ -3407,7 +3491,7 @@
         <v>5</v>
       </c>
       <c r="F55" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G55" s="9">
         <v>5</v>
@@ -3416,10 +3500,10 @@
         <v>23</v>
       </c>
       <c r="I55" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J55" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K55" s="9">
         <v>5</v>
@@ -3442,18 +3526,24 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="9"/>
+    <row r="56" spans="1:25" customHeight="1" ht="25">
+      <c r="A56" s="9">
+        <v>44</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="D56" s="9">
         <v>5</v>
       </c>
       <c r="E56" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G56" s="9">
         <v>5</v>
@@ -3462,13 +3552,13 @@
         <v>23</v>
       </c>
       <c r="I56" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J56" s="9">
         <v>5</v>
       </c>
       <c r="K56" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L56" s="9" t="str">
         <f>AVERAGE(D56:K56)</f>
@@ -3488,18 +3578,24 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="9"/>
+    <row r="57" spans="1:25" customHeight="1" ht="25">
+      <c r="A57" s="9">
+        <v>45</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="D57" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" s="9">
         <v>4</v>
       </c>
       <c r="F57" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G57" s="9">
         <v>5</v>
@@ -3508,13 +3604,13 @@
         <v>23</v>
       </c>
       <c r="I57" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J57" s="9">
         <v>5</v>
       </c>
       <c r="K57" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L57" s="9" t="str">
         <f>AVERAGE(D57:K57)</f>
@@ -3536,7 +3632,7 @@
     </row>
     <row r="58" spans="1:25" customHeight="1" ht="14.25">
       <c r="A58" s="9"/>
-      <c r="B58" s="23"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9">
         <v>5</v>
@@ -3557,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="J58" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K58" s="9">
         <v>5</v>
@@ -3582,13 +3678,13 @@
     </row>
     <row r="59" spans="1:25" customHeight="1" ht="14.25">
       <c r="A59" s="9"/>
-      <c r="B59" s="23"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9">
         <v>5</v>
       </c>
       <c r="E59" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" s="9">
         <v>5</v>
@@ -3628,7 +3724,7 @@
     </row>
     <row r="60" spans="1:25" customHeight="1" ht="14.25">
       <c r="A60" s="9"/>
-      <c r="B60" s="23"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9">
         <v>5</v>
@@ -3992,12 +4088,12 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="24" t="s">
-        <v>58</v>
+      <c r="D73" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="25"/>
+      <c r="G73" s="24"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -4021,10 +4117,10 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="27"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="25"/>
+      <c r="G74" s="24"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -4048,10 +4144,10 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="27"/>
+      <c r="D75" s="26"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="25"/>
+      <c r="G75" s="24"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -4075,10 +4171,10 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="27"/>
+      <c r="D76" s="26"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="25"/>
+      <c r="G76" s="24"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -4102,10 +4198,10 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="27"/>
+      <c r="D77" s="26"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="25"/>
+      <c r="G77" s="24"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -4129,12 +4225,12 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="28" t="s">
-        <v>59</v>
+      <c r="D78" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="25"/>
+      <c r="G78" s="24"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -4158,10 +4254,10 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="27"/>
+      <c r="D79" s="26"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="25"/>
+      <c r="G79" s="24"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -4185,12 +4281,12 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="28" t="s">
-        <v>60</v>
+      <c r="D80" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="25"/>
+      <c r="G80" s="24"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -4214,12 +4310,12 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="30"/>
+      <c r="D81" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="29"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>

--- a/cssPMLReport.xlsx
+++ b/cssPMLReport.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>Office: DILG IV-A CALABARZON</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Procedure Title/Service Provided: Provision of TA on ICT Resources</t>
   </si>
   <si>
-    <t>Covered Period:February 2021</t>
+    <t>Covered Period:January 1970</t>
   </si>
   <si>
     <t>NO.</t>
@@ -91,166 +91,430 @@
 (Indicate Reason if Target is unmet)</t>
   </si>
   <si>
-    <t>DENNIS CASTILLO</t>
+    <t>HANNAH KRYSTEL CASTRO</t>
   </si>
   <si>
-    <t>February 01, 2021</t>
+    <t>July 02, 2021</t>
   </si>
   <si>
     <t>Free of charge</t>
   </si>
   <si>
-    <t>JUDY ANN  SILVA</t>
+    <t>EQUILA JESSA ALFORJA</t>
+  </si>
+  <si>
+    <t>July 05, 2021</t>
+  </si>
+  <si>
+    <t>MARY ROXANNE VICEDO</t>
+  </si>
+  <si>
+    <t>July 06, 2021</t>
+  </si>
+  <si>
+    <t>MARIELLE ANN ODCHIGUE</t>
+  </si>
+  <si>
+    <t>July 07, 2021</t>
+  </si>
+  <si>
+    <t>LOUIE JAKE BANALAN</t>
+  </si>
+  <si>
+    <t>MILCHA ESPEDILLON</t>
+  </si>
+  <si>
+    <t>July 08, 2021</t>
+  </si>
+  <si>
+    <t>RIZZALIE JOY EBREO</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL LLANTO</t>
+  </si>
+  <si>
+    <t>Free of Charge</t>
+  </si>
+  <si>
+    <t>RAYMOND JOSEPH PARAISO</t>
+  </si>
+  <si>
+    <t>July 09, 2021</t>
+  </si>
+  <si>
+    <t>July 12, 2021</t>
+  </si>
+  <si>
+    <t>JEFREY GAMBAN</t>
+  </si>
+  <si>
+    <t>July 14, 2021</t>
+  </si>
+  <si>
+    <t>July 15, 2021</t>
+  </si>
+  <si>
+    <t>CRISTEL MARIE FISCAL</t>
+  </si>
+  <si>
+    <t>JOEL GAONA</t>
+  </si>
+  <si>
+    <t>July 21, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBINSON  MAAC </t>
+  </si>
+  <si>
+    <t>OLIVER MONTEFALCON</t>
+  </si>
+  <si>
+    <t>July 22, 2021</t>
+  </si>
+  <si>
+    <t>Approved By:</t>
+  </si>
+  <si>
+    <t>SHARMAINE MAE CATAPANG</t>
+  </si>
+  <si>
+    <t>July 23, 2021</t>
+  </si>
+  <si>
+    <t>SHAIRA GLEE</t>
+  </si>
+  <si>
+    <t>August 09, 2021</t>
+  </si>
+  <si>
+    <t>CELIO FRANCIA</t>
+  </si>
+  <si>
+    <t>July 30, 2021</t>
+  </si>
+  <si>
+    <t>REY ANN AVILLA</t>
+  </si>
+  <si>
+    <t>August 02, 2021</t>
+  </si>
+  <si>
+    <t>MAYBELLINE M. MONTEIRO</t>
   </si>
   <si>
     <t>MYLA MANIBO</t>
   </si>
   <si>
-    <t>MONETTE LANDICHO</t>
-  </si>
-  <si>
     <t>RAFAEL SATURNO</t>
   </si>
   <si>
-    <t>JOSEPH GABRIEL ARIATE</t>
+    <t>August 06, 2021</t>
   </si>
   <si>
-    <t>JORGE ALVIN MONTEIRO</t>
+    <t>Date:October 12, 2022</t>
   </si>
   <si>
-    <t>February 02, 2021</t>
+    <t>ORVILLE OXEMER</t>
   </si>
   <si>
-    <t>SHARMAINE MAE CATAPANG</t>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>CHERIELYN PORRAS</t>
+  </si>
+  <si>
+    <t>MARICHAR GAMBAN</t>
+  </si>
+  <si>
+    <t>August 10, 2021</t>
+  </si>
+  <si>
+    <t>CHERRIBIN PANGANIBAN</t>
+  </si>
+  <si>
+    <t>SARA ELAYNE CALIWAGAN</t>
+  </si>
+  <si>
+    <t>August 23, 2021</t>
+  </si>
+  <si>
+    <t>ANGELICA GRUESO</t>
+  </si>
+  <si>
+    <t>August 16, 2021</t>
+  </si>
+  <si>
+    <t>JOSEPH RYAN GERONIMO</t>
+  </si>
+  <si>
+    <t>August 17, 2021</t>
+  </si>
+  <si>
+    <t>ANGELITO CORTUNA</t>
+  </si>
+  <si>
+    <t>EVANGELINE ROSE DEL MORO</t>
+  </si>
+  <si>
+    <t>August 13, 2021</t>
+  </si>
+  <si>
+    <t>KRISTEL CATE FRANCISCO</t>
+  </si>
+  <si>
+    <t>MAYBELLINE MONTEIRO</t>
+  </si>
+  <si>
+    <t>JAMES AXEL ZUBELDIA</t>
+  </si>
+  <si>
+    <t>JUDY ANN  SILVA</t>
+  </si>
+  <si>
+    <t>August 18, 2021</t>
+  </si>
+  <si>
+    <t>JOY AVILA</t>
+  </si>
+  <si>
+    <t>September 03, 2021</t>
+  </si>
+  <si>
+    <t>GLACIE VILLANUEVA</t>
+  </si>
+  <si>
+    <t>JOJIE RUPERT  ABLAZA</t>
+  </si>
+  <si>
+    <t>AIVEE YVETTE PEREZ</t>
+  </si>
+  <si>
+    <t>September 28, 2021</t>
+  </si>
+  <si>
+    <t>September 27, 2021</t>
+  </si>
+  <si>
+    <t>ROXANNE ANTENOR</t>
+  </si>
+  <si>
+    <t>ABIGAIL NABUNG</t>
+  </si>
+  <si>
+    <t>September 23, 2021</t>
+  </si>
+  <si>
+    <t>KARYLL LINGAYO</t>
+  </si>
+  <si>
+    <t>PEDRYAN CRIS MENDOZA</t>
+  </si>
+  <si>
+    <t>September 22, 2021</t>
+  </si>
+  <si>
+    <t>MARIA MELODY ZAMORA</t>
+  </si>
+  <si>
+    <t>JAYBEE  ACO</t>
+  </si>
+  <si>
+    <t>September 21, 2021</t>
+  </si>
+  <si>
+    <t>ROSE ANN YARA</t>
+  </si>
+  <si>
+    <t>September 17, 2021</t>
+  </si>
+  <si>
+    <t>DANIEL CARLO FARENAS</t>
+  </si>
+  <si>
+    <t>JOHN CARLO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HAZEL ELAGO</t>
+  </si>
+  <si>
+    <t>September 16, 2021</t>
+  </si>
+  <si>
+    <t>MARY JANE LLEGOS</t>
+  </si>
+  <si>
+    <t>September 19, 2021</t>
+  </si>
+  <si>
+    <t>ARA MAE SAMIA</t>
+  </si>
+  <si>
+    <t>RYAN MACARAIG</t>
+  </si>
+  <si>
+    <t>September 15, 2021</t>
+  </si>
+  <si>
+    <t>JOACHIM  LACDANG</t>
+  </si>
+  <si>
+    <t>September 14, 2021</t>
+  </si>
+  <si>
+    <t>CHRISTIAN DACANAY</t>
+  </si>
+  <si>
+    <t>ABEL FULGENCIO</t>
+  </si>
+  <si>
+    <t>September 10, 2021</t>
+  </si>
+  <si>
+    <t>September 09, 2021</t>
+  </si>
+  <si>
+    <t>September 08, 2021</t>
+  </si>
+  <si>
+    <t>CRISTYVIEN ACLAN</t>
   </si>
   <si>
     <t>EMMANUEL OBCIANA</t>
   </si>
   <si>
-    <t>February 03, 2021</t>
+    <t>September 06, 2021</t>
   </si>
   <si>
-    <t>MA CRISTINA GALLAZA</t>
+    <t>September 07, 2021</t>
   </si>
   <si>
-    <t>ARA MAE SAMIA</t>
+    <t>September 02, 2021</t>
   </si>
   <si>
-    <t>MILCHA ESPEDILLON</t>
+    <t>CAMILLE GATDULA</t>
   </si>
   <si>
-    <t>February 04, 2021</t>
+    <t>September 01, 2021</t>
   </si>
   <si>
-    <t>JAYBEE  ACO</t>
+    <t>MICHAEL LOUIE DE CASTRO</t>
   </si>
   <si>
-    <t>CRISTEL MARIE FISCAL</t>
+    <t>JAY EMERSON DE LEON</t>
+  </si>
+  <si>
+    <t>August 31, 2021</t>
+  </si>
+  <si>
+    <t>SHAYNE RENALYN MERCADO</t>
+  </si>
+  <si>
+    <t>August 27, 2021</t>
+  </si>
+  <si>
+    <t>September 29, 2021</t>
+  </si>
+  <si>
+    <t>EUNICE SALES</t>
+  </si>
+  <si>
+    <t>JAYSON CHAVEZ</t>
+  </si>
+  <si>
+    <t>September 30, 2021</t>
+  </si>
+  <si>
+    <t>August 19, 2021</t>
+  </si>
+  <si>
+    <t>August 20, 2021</t>
+  </si>
+  <si>
+    <t>August 05, 2021</t>
+  </si>
+  <si>
+    <t>September 13, 2021</t>
+  </si>
+  <si>
+    <t>ANABELLE NOCON</t>
+  </si>
+  <si>
+    <t>September 20, 2021</t>
+  </si>
+  <si>
+    <t>HADADEZER ABADIER</t>
+  </si>
+  <si>
+    <t>July 01, 2022</t>
+  </si>
+  <si>
+    <t>MARK JOSEPH MARQUEZ</t>
+  </si>
+  <si>
+    <t>July 04, 2022</t>
+  </si>
+  <si>
+    <t>MARY JANICE SOBREMONTE</t>
+  </si>
+  <si>
+    <t>July 05, 2022</t>
+  </si>
+  <si>
+    <t>REX MIRANDA</t>
+  </si>
+  <si>
+    <t>DARELL DE CHAVEZ</t>
+  </si>
+  <si>
+    <t>July 11, 2022</t>
+  </si>
+  <si>
+    <t>MICHIKO ESCALANTE</t>
+  </si>
+  <si>
+    <t>July 13, 2022</t>
+  </si>
+  <si>
+    <t>JOHN PAUL NIEVA</t>
+  </si>
+  <si>
+    <t>July 18, 2022</t>
+  </si>
+  <si>
+    <t>TIRSO ALVIN III LAVINA</t>
+  </si>
+  <si>
+    <t>July 19, 2022</t>
+  </si>
+  <si>
+    <t>July 20, 2022</t>
   </si>
   <si>
     <t>JENNA LYN CRUZ</t>
   </si>
   <si>
-    <t>February 08, 2021</t>
+    <t>KATHERINE ANN TABERNILLA</t>
   </si>
   <si>
-    <t>NEIL DE OCAMPO</t>
+    <t>July 21, 2022</t>
   </si>
   <si>
-    <t>February 09, 2021</t>
+    <t>LAURICE PIA ARANDELA</t>
   </si>
   <si>
-    <t>JOYCE SAAVEDRA</t>
+    <t>July 22, 2022</t>
   </si>
   <si>
-    <t>REUBEN JOSEPH JUSTO</t>
+    <t>JAYBEE ACO</t>
   </si>
   <si>
-    <t>February 10, 2021</t>
+    <t>July 26, 2022</t>
   </si>
   <si>
-    <t>JOY AVILA</t>
+    <t>SHAZER LEO AMBAS</t>
   </si>
   <si>
-    <t>February 15, 2021</t>
-  </si>
-  <si>
-    <t>JOHN LAURENCE GONZALES</t>
-  </si>
-  <si>
-    <t>ELVIN JAVIER</t>
-  </si>
-  <si>
-    <t>EQUILA JESSA ALFORJA</t>
-  </si>
-  <si>
-    <t>February 24, 2021</t>
-  </si>
-  <si>
-    <t>HAZEL ELAGO</t>
-  </si>
-  <si>
-    <t>February 23, 2021</t>
-  </si>
-  <si>
-    <t>HANNAH KRYSTEL CASTRO</t>
-  </si>
-  <si>
-    <t>February 22, 2021</t>
-  </si>
-  <si>
-    <t>February 19, 2021</t>
-  </si>
-  <si>
-    <t>February 18, 2021</t>
-  </si>
-  <si>
-    <t>AGNES SANGEL</t>
-  </si>
-  <si>
-    <t>February 17, 2021</t>
-  </si>
-  <si>
-    <t>JOSEPHINE DELA ROSA</t>
-  </si>
-  <si>
-    <t>February 16, 2021</t>
-  </si>
-  <si>
-    <t>THELMA BENABON</t>
-  </si>
-  <si>
-    <t>ROWEL SANTOS</t>
-  </si>
-  <si>
-    <t>RHEA LEY ABIT</t>
-  </si>
-  <si>
-    <t>RHYIANNE MEJICO</t>
-  </si>
-  <si>
-    <t>FRANZ ALLEN ADEL</t>
-  </si>
-  <si>
-    <t>JHEAN YARA</t>
-  </si>
-  <si>
-    <t>ABEL FULGENCIO</t>
-  </si>
-  <si>
-    <t>February 05, 2021</t>
-  </si>
-  <si>
-    <t>Approved By:</t>
-  </si>
-  <si>
-    <t>MAYBELLINE M. MONTEIRO</t>
-  </si>
-  <si>
-    <t>Date:May 25, 2021</t>
-  </si>
-  <si>
-    <t>Position</t>
+    <t>July 27, 2022</t>
   </si>
 </sst>
 </file>
@@ -403,13 +667,40 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -418,14 +709,26 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -434,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -507,16 +810,19 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -892,7 +1198,7 @@
   <dimension ref="A1:Y979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="80" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F81" sqref="F81"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1347,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>22</v>
@@ -1399,10 +1705,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="D15" s="4">
         <v>5</v>
@@ -1454,7 +1760,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4">
         <v>5</v>
@@ -1475,10 +1781,10 @@
         <v>5</v>
       </c>
       <c r="J16" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L16" s="4" t="str">
         <f>AVERAGE(D16:K16)</f>
@@ -1503,28 +1809,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" s="4">
         <v>5</v>
@@ -1555,10 +1861,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D18" s="4">
         <v>5</v>
@@ -1607,10 +1913,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="4">
         <v>5</v>
@@ -1659,10 +1965,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="4">
         <v>5</v>
@@ -1711,10 +2017,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D21" s="4">
         <v>5</v>
@@ -1763,10 +2069,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4">
         <v>5</v>
@@ -1815,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D23" s="4">
         <v>5</v>
@@ -1836,13 +2142,13 @@
         <v>23</v>
       </c>
       <c r="I23" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K23" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L23" s="4" t="str">
         <f>AVERAGE(D23:K23)</f>
@@ -1867,22 +2173,22 @@
         <v>12</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D24" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>23</v>
@@ -1919,10 +2225,10 @@
         <v>13</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D25" s="4">
         <v>5</v>
@@ -1971,10 +2277,10 @@
         <v>14</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D26" s="4">
         <v>5</v>
@@ -2023,10 +2329,10 @@
         <v>15</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D27" s="4">
         <v>5</v>
@@ -2075,10 +2381,10 @@
         <v>16</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D28" s="4">
         <v>5</v>
@@ -2127,10 +2433,10 @@
         <v>17</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D29" s="4">
         <v>5</v>
@@ -2141,21 +2447,13 @@
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="G29" s="4">
-        <v>5</v>
-      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="4">
-        <v>5</v>
-      </c>
-      <c r="J29" s="4">
-        <v>5</v>
-      </c>
-      <c r="K29" s="4">
-        <v>5</v>
-      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
       <c r="L29" s="4" t="str">
         <f>AVERAGE(D29:K29)</f>
         <v>0</v>
@@ -2179,39 +2477,22 @@
         <v>18</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="4">
-        <v>5</v>
-      </c>
-      <c r="E30" s="4">
-        <v>5</v>
-      </c>
-      <c r="F30" s="4">
-        <v>5</v>
-      </c>
-      <c r="G30" s="4">
-        <v>5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="4">
-        <v>5</v>
-      </c>
-      <c r="J30" s="4">
-        <v>5</v>
-      </c>
-      <c r="K30" s="4">
-        <v>5</v>
-      </c>
-      <c r="L30" s="4" t="str">
-        <f>AVERAGE(D30:K30)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -2231,39 +2512,22 @@
         <v>19</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="4">
-        <v>5</v>
-      </c>
-      <c r="E31" s="4">
-        <v>5</v>
-      </c>
-      <c r="F31" s="4">
-        <v>5</v>
-      </c>
-      <c r="G31" s="4">
-        <v>5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="4">
-        <v>5</v>
-      </c>
-      <c r="J31" s="4">
-        <v>5</v>
-      </c>
-      <c r="K31" s="4">
-        <v>5</v>
-      </c>
-      <c r="L31" s="4" t="str">
-        <f>AVERAGE(D31:K31)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2283,39 +2547,22 @@
         <v>20</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="4">
-        <v>5</v>
-      </c>
-      <c r="E32" s="4">
-        <v>5</v>
-      </c>
-      <c r="F32" s="4">
-        <v>5</v>
-      </c>
-      <c r="G32" s="4">
-        <v>5</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="4">
-        <v>5</v>
-      </c>
-      <c r="J32" s="4">
-        <v>5</v>
-      </c>
-      <c r="K32" s="4">
-        <v>5</v>
-      </c>
-      <c r="L32" s="4" t="str">
-        <f>AVERAGE(D32:K32)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -2335,39 +2582,22 @@
         <v>21</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="4">
-        <v>5</v>
-      </c>
-      <c r="E33" s="4">
-        <v>5</v>
-      </c>
-      <c r="F33" s="4">
-        <v>5</v>
-      </c>
-      <c r="G33" s="4">
-        <v>5</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="4">
-        <v>5</v>
-      </c>
-      <c r="J33" s="4">
-        <v>5</v>
-      </c>
-      <c r="K33" s="4">
-        <v>5</v>
-      </c>
-      <c r="L33" s="4" t="str">
-        <f>AVERAGE(D33:K33)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2387,39 +2617,22 @@
         <v>22</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="4">
-        <v>5</v>
-      </c>
-      <c r="E34" s="4">
-        <v>5</v>
-      </c>
-      <c r="F34" s="4">
-        <v>5</v>
-      </c>
-      <c r="G34" s="4">
-        <v>5</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="4">
-        <v>5</v>
-      </c>
-      <c r="J34" s="4">
-        <v>5</v>
-      </c>
-      <c r="K34" s="4">
-        <v>5</v>
-      </c>
-      <c r="L34" s="4" t="str">
-        <f>AVERAGE(D34:K34)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -2439,39 +2652,22 @@
         <v>23</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="4">
-        <v>5</v>
-      </c>
-      <c r="E35" s="4">
-        <v>5</v>
-      </c>
-      <c r="F35" s="4">
-        <v>5</v>
-      </c>
-      <c r="G35" s="4">
-        <v>5</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="4">
-        <v>5</v>
-      </c>
-      <c r="J35" s="4">
-        <v>5</v>
-      </c>
-      <c r="K35" s="4">
-        <v>5</v>
-      </c>
-      <c r="L35" s="4" t="str">
-        <f>AVERAGE(D35:K35)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -2491,39 +2687,22 @@
         <v>24</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="4">
-        <v>5</v>
-      </c>
-      <c r="E36" s="4">
-        <v>5</v>
-      </c>
-      <c r="F36" s="4">
-        <v>5</v>
-      </c>
-      <c r="G36" s="4">
-        <v>5</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="4">
-        <v>5</v>
-      </c>
-      <c r="J36" s="4">
-        <v>5</v>
-      </c>
-      <c r="K36" s="4">
-        <v>5</v>
-      </c>
-      <c r="L36" s="4" t="str">
-        <f>AVERAGE(D36:K36)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -2538,44 +2717,27 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" customHeight="1" ht="10">
+    <row r="37" spans="1:25" customHeight="1" ht="25">
       <c r="A37" s="5">
         <v>25</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="4">
-        <v>5</v>
-      </c>
-      <c r="E37" s="4">
-        <v>5</v>
-      </c>
-      <c r="F37" s="4">
-        <v>5</v>
-      </c>
-      <c r="G37" s="4">
-        <v>5</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="4">
-        <v>5</v>
-      </c>
-      <c r="J37" s="4">
-        <v>5</v>
-      </c>
-      <c r="K37" s="4">
-        <v>5</v>
-      </c>
-      <c r="L37" s="4" t="str">
-        <f>AVERAGE(D37:K37)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -2595,39 +2757,22 @@
         <v>26</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="4">
-        <v>5</v>
-      </c>
-      <c r="E38" s="4">
-        <v>5</v>
-      </c>
-      <c r="F38" s="4">
-        <v>5</v>
-      </c>
-      <c r="G38" s="4">
-        <v>5</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="4">
-        <v>5</v>
-      </c>
-      <c r="J38" s="4">
-        <v>5</v>
-      </c>
-      <c r="K38" s="4">
-        <v>5</v>
-      </c>
-      <c r="L38" s="4" t="str">
-        <f>AVERAGE(D38:K38)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -2647,39 +2792,22 @@
         <v>27</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="4">
-        <v>5</v>
-      </c>
-      <c r="E39" s="4">
-        <v>5</v>
-      </c>
-      <c r="F39" s="4">
-        <v>5</v>
-      </c>
-      <c r="G39" s="4">
-        <v>5</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="4">
-        <v>5</v>
-      </c>
-      <c r="J39" s="4">
-        <v>5</v>
-      </c>
-      <c r="K39" s="4">
-        <v>5</v>
-      </c>
-      <c r="L39" s="4" t="str">
-        <f>AVERAGE(D39:K39)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2699,39 +2827,22 @@
         <v>28</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="4">
-        <v>5</v>
-      </c>
-      <c r="E40" s="4">
-        <v>5</v>
-      </c>
-      <c r="F40" s="4">
-        <v>5</v>
-      </c>
-      <c r="G40" s="4">
-        <v>5</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="4">
-        <v>5</v>
-      </c>
-      <c r="J40" s="4">
-        <v>5</v>
-      </c>
-      <c r="K40" s="4">
-        <v>5</v>
-      </c>
-      <c r="L40" s="4" t="str">
-        <f>AVERAGE(D40:K40)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -2751,39 +2862,22 @@
         <v>29</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="4">
-        <v>5</v>
-      </c>
-      <c r="E41" s="4">
-        <v>5</v>
-      </c>
-      <c r="F41" s="4">
-        <v>5</v>
-      </c>
-      <c r="G41" s="4">
-        <v>5</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="4">
-        <v>5</v>
-      </c>
-      <c r="J41" s="4">
-        <v>5</v>
-      </c>
-      <c r="K41" s="4">
-        <v>5</v>
-      </c>
-      <c r="L41" s="4" t="str">
-        <f>AVERAGE(D41:K41)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -2803,39 +2897,24 @@
         <v>30</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="4">
-        <v>5</v>
-      </c>
-      <c r="E42" s="4">
-        <v>5</v>
-      </c>
-      <c r="F42" s="4">
-        <v>5</v>
-      </c>
-      <c r="G42" s="4">
-        <v>5</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="4">
-        <v>5</v>
-      </c>
-      <c r="J42" s="4">
-        <v>5</v>
-      </c>
-      <c r="K42" s="4">
-        <v>5</v>
-      </c>
-      <c r="L42" s="4" t="str">
-        <f>AVERAGE(D42:K42)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -2855,39 +2934,22 @@
         <v>31</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="4">
-        <v>5</v>
-      </c>
-      <c r="E43" s="4">
-        <v>5</v>
-      </c>
-      <c r="F43" s="4">
-        <v>5</v>
-      </c>
-      <c r="G43" s="4">
-        <v>5</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="4">
-        <v>4</v>
-      </c>
-      <c r="J43" s="4">
-        <v>5</v>
-      </c>
-      <c r="K43" s="4">
-        <v>4</v>
-      </c>
-      <c r="L43" s="4" t="str">
-        <f>AVERAGE(D43:K43)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -2907,39 +2969,22 @@
         <v>32</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="4">
-        <v>4</v>
-      </c>
-      <c r="E44" s="4">
-        <v>4</v>
-      </c>
-      <c r="F44" s="4">
-        <v>4</v>
-      </c>
-      <c r="G44" s="4">
-        <v>5</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="4">
-        <v>4</v>
-      </c>
-      <c r="J44" s="4">
-        <v>3</v>
-      </c>
-      <c r="K44" s="4">
-        <v>4</v>
-      </c>
-      <c r="L44" s="4" t="str">
-        <f>AVERAGE(D44:K44)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -2959,39 +3004,22 @@
         <v>33</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="4">
-        <v>4</v>
-      </c>
-      <c r="E45" s="4">
-        <v>4</v>
-      </c>
-      <c r="F45" s="4">
-        <v>4</v>
-      </c>
-      <c r="G45" s="4">
-        <v>5</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="4">
-        <v>5</v>
-      </c>
-      <c r="J45" s="4">
-        <v>4</v>
-      </c>
-      <c r="K45" s="4">
-        <v>4</v>
-      </c>
-      <c r="L45" s="4" t="str">
-        <f>AVERAGE(D45:K45)</f>
-        <v>0</v>
-      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -3011,39 +3039,22 @@
         <v>34</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="4">
-        <v>5</v>
-      </c>
-      <c r="E46" s="4">
-        <v>5</v>
-      </c>
-      <c r="F46" s="4">
-        <v>4</v>
-      </c>
-      <c r="G46" s="4">
-        <v>5</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="24"/>
       <c r="H46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="4">
-        <v>5</v>
-      </c>
-      <c r="J46" s="4">
-        <v>4</v>
-      </c>
-      <c r="K46" s="4">
-        <v>5</v>
-      </c>
-      <c r="L46" s="4" t="str">
-        <f>AVERAGE(D46:K46)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -3063,39 +3074,24 @@
         <v>35</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="4">
-        <v>4</v>
-      </c>
-      <c r="E47" s="4">
-        <v>4</v>
-      </c>
-      <c r="F47" s="4">
-        <v>5</v>
-      </c>
-      <c r="G47" s="4">
-        <v>5</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="24"/>
       <c r="H47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="4">
-        <v>5</v>
-      </c>
-      <c r="J47" s="4">
-        <v>4</v>
-      </c>
-      <c r="K47" s="4">
-        <v>5</v>
-      </c>
-      <c r="L47" s="4" t="str">
-        <f>AVERAGE(D47:K47)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -3115,39 +3111,22 @@
         <v>36</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="4">
-        <v>4</v>
-      </c>
-      <c r="E48" s="4">
-        <v>5</v>
-      </c>
-      <c r="F48" s="4">
-        <v>5</v>
-      </c>
-      <c r="G48" s="4">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="24"/>
       <c r="H48" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I48" s="4">
-        <v>4</v>
-      </c>
-      <c r="J48" s="4">
-        <v>4</v>
-      </c>
-      <c r="K48" s="4">
-        <v>5</v>
-      </c>
-      <c r="L48" s="4" t="str">
-        <f>AVERAGE(D48:K48)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -3167,39 +3146,24 @@
         <v>37</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="9">
-        <v>5</v>
-      </c>
-      <c r="E49" s="9">
-        <v>5</v>
-      </c>
-      <c r="F49" s="9">
-        <v>4</v>
-      </c>
-      <c r="G49" s="9">
-        <v>5</v>
-      </c>
+      <c r="D49" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="9">
-        <v>5</v>
-      </c>
-      <c r="J49" s="9">
-        <v>4</v>
-      </c>
-      <c r="K49" s="9">
-        <v>5</v>
-      </c>
-      <c r="L49" s="9" t="str">
-        <f>AVERAGE(D49:K49)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
@@ -3219,39 +3183,24 @@
         <v>38</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="9">
-        <v>5</v>
-      </c>
-      <c r="E50" s="9">
-        <v>5</v>
-      </c>
-      <c r="F50" s="9">
-        <v>5</v>
-      </c>
-      <c r="G50" s="9">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="30"/>
       <c r="H50" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="9">
-        <v>5</v>
-      </c>
-      <c r="J50" s="9">
-        <v>4</v>
-      </c>
-      <c r="K50" s="9">
-        <v>5</v>
-      </c>
-      <c r="L50" s="9" t="str">
-        <f>AVERAGE(D50:K50)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
@@ -3271,39 +3220,22 @@
         <v>39</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="9">
-        <v>4</v>
-      </c>
-      <c r="E51" s="9">
-        <v>5</v>
-      </c>
-      <c r="F51" s="9">
-        <v>5</v>
-      </c>
-      <c r="G51" s="9">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="9">
-        <v>5</v>
-      </c>
-      <c r="J51" s="9">
-        <v>5</v>
-      </c>
-      <c r="K51" s="9">
-        <v>5</v>
-      </c>
-      <c r="L51" s="9" t="str">
-        <f>AVERAGE(D51:K51)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
@@ -3323,39 +3255,22 @@
         <v>40</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="9">
-        <v>5</v>
-      </c>
-      <c r="E52" s="9">
-        <v>5</v>
-      </c>
-      <c r="F52" s="9">
-        <v>5</v>
-      </c>
-      <c r="G52" s="9">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I52" s="9">
-        <v>5</v>
-      </c>
-      <c r="J52" s="9">
-        <v>5</v>
-      </c>
-      <c r="K52" s="9">
-        <v>5</v>
-      </c>
-      <c r="L52" s="9" t="str">
-        <f>AVERAGE(D52:K52)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
@@ -3375,39 +3290,22 @@
         <v>41</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="9">
-        <v>5</v>
-      </c>
-      <c r="E53" s="9">
-        <v>5</v>
-      </c>
-      <c r="F53" s="9">
-        <v>5</v>
-      </c>
-      <c r="G53" s="9">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53" s="9">
-        <v>4</v>
-      </c>
-      <c r="J53" s="9">
-        <v>4</v>
-      </c>
-      <c r="K53" s="9">
-        <v>5</v>
-      </c>
-      <c r="L53" s="9" t="str">
-        <f>AVERAGE(D53:K53)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
@@ -3427,39 +3325,22 @@
         <v>42</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="9">
-        <v>4</v>
-      </c>
-      <c r="E54" s="9">
-        <v>5</v>
-      </c>
-      <c r="F54" s="9">
-        <v>5</v>
-      </c>
-      <c r="G54" s="9">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
       <c r="H54" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" s="9">
-        <v>4</v>
-      </c>
-      <c r="J54" s="9">
-        <v>5</v>
-      </c>
-      <c r="K54" s="9">
-        <v>5</v>
-      </c>
-      <c r="L54" s="9" t="str">
-        <f>AVERAGE(D54:K54)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
@@ -3479,39 +3360,22 @@
         <v>43</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="9">
-        <v>5</v>
-      </c>
-      <c r="E55" s="9">
-        <v>5</v>
-      </c>
-      <c r="F55" s="9">
-        <v>4</v>
-      </c>
-      <c r="G55" s="9">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" s="9">
-        <v>4</v>
-      </c>
-      <c r="J55" s="9">
-        <v>4</v>
-      </c>
-      <c r="K55" s="9">
-        <v>5</v>
-      </c>
-      <c r="L55" s="9" t="str">
-        <f>AVERAGE(D55:K55)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
@@ -3531,39 +3395,22 @@
         <v>44</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="9">
-        <v>5</v>
-      </c>
-      <c r="E56" s="9">
-        <v>4</v>
-      </c>
-      <c r="F56" s="9">
-        <v>4</v>
-      </c>
-      <c r="G56" s="9">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
       <c r="H56" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56" s="9">
-        <v>4</v>
-      </c>
-      <c r="J56" s="9">
-        <v>5</v>
-      </c>
-      <c r="K56" s="9">
-        <v>4</v>
-      </c>
-      <c r="L56" s="9" t="str">
-        <f>AVERAGE(D56:K56)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
@@ -3583,39 +3430,22 @@
         <v>45</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="9">
-        <v>4</v>
-      </c>
-      <c r="E57" s="9">
-        <v>4</v>
-      </c>
-      <c r="F57" s="9">
-        <v>4</v>
-      </c>
-      <c r="G57" s="9">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
       <c r="H57" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I57" s="9">
-        <v>5</v>
-      </c>
-      <c r="J57" s="9">
-        <v>5</v>
-      </c>
-      <c r="K57" s="9">
-        <v>4</v>
-      </c>
-      <c r="L57" s="9" t="str">
-        <f>AVERAGE(D57:K57)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
@@ -3630,38 +3460,27 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9">
-        <v>5</v>
-      </c>
-      <c r="E58" s="9">
-        <v>4</v>
-      </c>
-      <c r="F58" s="9">
-        <v>5</v>
-      </c>
-      <c r="G58" s="9">
-        <v>5</v>
-      </c>
+    <row r="58" spans="1:25" customHeight="1" ht="25">
+      <c r="A58" s="9">
+        <v>46</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58" s="9">
-        <v>5</v>
-      </c>
-      <c r="J58" s="9">
-        <v>4</v>
-      </c>
-      <c r="K58" s="9">
-        <v>5</v>
-      </c>
-      <c r="L58" s="9" t="str">
-        <f>AVERAGE(D58:K58)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
@@ -3676,38 +3495,27 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9">
-        <v>5</v>
-      </c>
-      <c r="E59" s="9">
-        <v>4</v>
-      </c>
-      <c r="F59" s="9">
-        <v>5</v>
-      </c>
-      <c r="G59" s="9">
-        <v>5</v>
-      </c>
+    <row r="59" spans="1:25" customHeight="1" ht="25">
+      <c r="A59" s="9">
+        <v>47</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I59" s="9">
-        <v>5</v>
-      </c>
-      <c r="J59" s="9">
-        <v>5</v>
-      </c>
-      <c r="K59" s="9">
-        <v>5</v>
-      </c>
-      <c r="L59" s="9" t="str">
-        <f>AVERAGE(D59:K59)</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
@@ -3722,30 +3530,27 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9">
-        <v>5</v>
-      </c>
-      <c r="E60" s="9">
-        <v>5</v>
-      </c>
-      <c r="F60" s="9">
-        <v>5</v>
-      </c>
+    <row r="60" spans="1:25" customHeight="1" ht="25">
+      <c r="A60" s="9">
+        <v>48</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
-      <c r="L60" s="9" t="str">
-        <f>AVERAGE(D60:K60)</f>
-        <v>0</v>
-      </c>
+      <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
@@ -3760,24 +3565,32 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
+    <row r="61" spans="1:25" customHeight="1" ht="25">
+      <c r="A61" s="9">
+        <v>49</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
@@ -3787,24 +3600,32 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
+    <row r="62" spans="1:25" customHeight="1" ht="25">
+      <c r="A62" s="9">
+        <v>50</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
@@ -3814,24 +3635,32 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
+    <row r="63" spans="1:25" customHeight="1" ht="25">
+      <c r="A63" s="9">
+        <v>51</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
@@ -3841,24 +3670,32 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
+    <row r="64" spans="1:25" customHeight="1" ht="25">
+      <c r="A64" s="9">
+        <v>52</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
@@ -3868,24 +3705,32 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
+    <row r="65" spans="1:25" customHeight="1" ht="25">
+      <c r="A65" s="9">
+        <v>53</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -3895,24 +3740,32 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
+    <row r="66" spans="1:25" customHeight="1" ht="25">
+      <c r="A66" s="9">
+        <v>54</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
@@ -3922,24 +3775,32 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
+    <row r="67" spans="1:25" customHeight="1" ht="25">
+      <c r="A67" s="9">
+        <v>55</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
@@ -3949,24 +3810,32 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
+    <row r="68" spans="1:25" customHeight="1" ht="25">
+      <c r="A68" s="9">
+        <v>56</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
@@ -3976,24 +3845,32 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
+    <row r="69" spans="1:25" customHeight="1" ht="25">
+      <c r="A69" s="9">
+        <v>57</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
@@ -4003,24 +3880,32 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
+    <row r="70" spans="1:25" customHeight="1" ht="25">
+      <c r="A70" s="9">
+        <v>58</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
@@ -4030,24 +3915,32 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
+    <row r="71" spans="1:25" customHeight="1" ht="25">
+      <c r="A71" s="9">
+        <v>59</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
@@ -4057,24 +3950,32 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
+    <row r="72" spans="1:25" customHeight="1" ht="10">
+      <c r="A72" s="9">
+        <v>60</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
@@ -4084,26 +3985,32 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+    <row r="73" spans="1:25" customHeight="1" ht="25">
+      <c r="A73" s="9">
+        <v>61</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
@@ -4113,24 +4020,32 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
+    <row r="74" spans="1:25" customHeight="1" ht="25">
+      <c r="A74" s="9">
+        <v>62</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
@@ -4140,24 +4055,32 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
+    <row r="75" spans="1:25" customHeight="1" ht="25">
+      <c r="A75" s="9">
+        <v>63</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
@@ -4167,24 +4090,32 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
+    <row r="76" spans="1:25" customHeight="1" ht="25">
+      <c r="A76" s="9">
+        <v>64</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
@@ -4194,24 +4125,32 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
+    <row r="77" spans="1:25" customHeight="1" ht="25">
+      <c r="A77" s="9">
+        <v>65</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
@@ -4221,26 +4160,32 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
+    <row r="78" spans="1:25" customHeight="1" ht="25">
+      <c r="A78" s="9">
+        <v>66</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
@@ -4250,24 +4195,32 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
+    <row r="79" spans="1:25" customHeight="1" ht="10">
+      <c r="A79" s="9">
+        <v>67</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
@@ -4277,26 +4230,32 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
+    <row r="80" spans="1:25" customHeight="1" ht="25">
+      <c r="A80" s="9">
+        <v>68</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
@@ -4306,26 +4265,32 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
+    <row r="81" spans="1:25" customHeight="1" ht="25">
+      <c r="A81" s="9">
+        <v>69</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
@@ -4335,24 +4300,32 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
+    <row r="82" spans="1:25" customHeight="1" ht="25">
+      <c r="A82" s="9">
+        <v>70</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
@@ -4362,24 +4335,32 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
+    <row r="83" spans="1:25" customHeight="1" ht="25">
+      <c r="A83" s="9">
+        <v>71</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
@@ -4389,24 +4370,32 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
+    <row r="84" spans="1:25" customHeight="1" ht="25">
+      <c r="A84" s="9">
+        <v>72</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
@@ -4416,24 +4405,32 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
+    <row r="85" spans="1:25" customHeight="1" ht="25">
+      <c r="A85" s="9">
+        <v>73</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
@@ -4443,24 +4440,32 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
+    <row r="86" spans="1:25" customHeight="1" ht="25">
+      <c r="A86" s="9">
+        <v>74</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
@@ -4470,24 +4475,32 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
+    <row r="87" spans="1:25" customHeight="1" ht="25">
+      <c r="A87" s="9">
+        <v>75</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
@@ -4497,24 +4510,32 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
+    <row r="88" spans="1:25" customHeight="1" ht="25">
+      <c r="A88" s="9">
+        <v>76</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
@@ -4524,24 +4545,32 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
+    <row r="89" spans="1:25" customHeight="1" ht="25">
+      <c r="A89" s="9">
+        <v>77</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
@@ -4551,24 +4580,32 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
+    <row r="90" spans="1:25" customHeight="1" ht="25">
+      <c r="A90" s="9">
+        <v>78</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
@@ -4578,24 +4615,32 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
+    <row r="91" spans="1:25" customHeight="1" ht="25">
+      <c r="A91" s="9">
+        <v>79</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
@@ -4605,24 +4650,32 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
+    <row r="92" spans="1:25" customHeight="1" ht="25">
+      <c r="A92" s="9">
+        <v>80</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
@@ -4632,24 +4685,32 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
+    <row r="93" spans="1:25" customHeight="1" ht="25">
+      <c r="A93" s="9">
+        <v>81</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
@@ -4659,24 +4720,32 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
+    <row r="94" spans="1:25" customHeight="1" ht="25">
+      <c r="A94" s="9">
+        <v>82</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
@@ -4686,24 +4755,32 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
+    <row r="95" spans="1:25" customHeight="1" ht="25">
+      <c r="A95" s="9">
+        <v>83</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
@@ -4713,24 +4790,32 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
+    <row r="96" spans="1:25" customHeight="1" ht="25">
+      <c r="A96" s="9">
+        <v>84</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
@@ -4740,24 +4825,32 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
+    <row r="97" spans="1:25" customHeight="1" ht="25">
+      <c r="A97" s="9">
+        <v>85</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
@@ -4767,24 +4860,32 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
+    <row r="98" spans="1:25" customHeight="1" ht="25">
+      <c r="A98" s="9">
+        <v>86</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
@@ -4794,24 +4895,32 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
+    <row r="99" spans="1:25" customHeight="1" ht="25">
+      <c r="A99" s="9">
+        <v>87</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
@@ -4821,24 +4930,32 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
+    <row r="100" spans="1:25" customHeight="1" ht="25">
+      <c r="A100" s="9">
+        <v>88</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
@@ -4848,24 +4965,32 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
+    <row r="101" spans="1:25" customHeight="1" ht="25">
+      <c r="A101" s="9">
+        <v>89</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
@@ -4875,24 +5000,32 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
+    <row r="102" spans="1:25" customHeight="1" ht="25">
+      <c r="A102" s="9">
+        <v>90</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
@@ -4902,24 +5035,32 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
+    <row r="103" spans="1:25" customHeight="1" ht="25">
+      <c r="A103" s="9">
+        <v>91</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
@@ -4929,24 +5070,32 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
+    <row r="104" spans="1:25" customHeight="1" ht="25">
+      <c r="A104" s="9">
+        <v>92</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
@@ -4956,24 +5105,32 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
+    <row r="105" spans="1:25" customHeight="1" ht="25">
+      <c r="A105" s="9">
+        <v>93</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
@@ -4983,24 +5140,32 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
+    <row r="106" spans="1:25" customHeight="1" ht="25">
+      <c r="A106" s="9">
+        <v>94</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
@@ -5010,24 +5175,32 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
+    <row r="107" spans="1:25" customHeight="1" ht="25">
+      <c r="A107" s="9">
+        <v>95</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
@@ -5037,24 +5210,32 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
+    <row r="108" spans="1:25" customHeight="1" ht="25">
+      <c r="A108" s="9">
+        <v>96</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
@@ -5064,24 +5245,32 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
+    <row r="109" spans="1:25" customHeight="1" ht="25">
+      <c r="A109" s="9">
+        <v>97</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
@@ -5091,24 +5280,32 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
+    <row r="110" spans="1:25" customHeight="1" ht="25">
+      <c r="A110" s="9">
+        <v>98</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
@@ -5118,24 +5315,32 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
+    <row r="111" spans="1:25" customHeight="1" ht="25">
+      <c r="A111" s="9">
+        <v>99</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
@@ -5145,24 +5350,32 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
+    <row r="112" spans="1:25" customHeight="1" ht="25">
+      <c r="A112" s="9">
+        <v>100</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
@@ -5172,24 +5385,32 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
+    <row r="113" spans="1:25" customHeight="1" ht="25">
+      <c r="A113" s="9">
+        <v>101</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
@@ -5199,24 +5420,32 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
+    <row r="114" spans="1:25" customHeight="1" ht="25">
+      <c r="A114" s="9">
+        <v>102</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
@@ -5226,24 +5455,32 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
+    <row r="115" spans="1:25" customHeight="1" ht="25">
+      <c r="A115" s="9">
+        <v>103</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
@@ -5253,24 +5490,32 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
+    <row r="116" spans="1:25" customHeight="1" ht="25">
+      <c r="A116" s="9">
+        <v>104</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
@@ -5280,24 +5525,32 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
+    <row r="117" spans="1:25" customHeight="1" ht="25">
+      <c r="A117" s="9">
+        <v>105</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
@@ -5307,24 +5560,32 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
+    <row r="118" spans="1:25" customHeight="1" ht="25">
+      <c r="A118" s="9">
+        <v>106</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
@@ -5334,24 +5595,32 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
+    <row r="119" spans="1:25" customHeight="1" ht="25">
+      <c r="A119" s="9">
+        <v>107</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
@@ -5361,24 +5630,32 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
+    <row r="120" spans="1:25" customHeight="1" ht="25">
+      <c r="A120" s="9">
+        <v>108</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
@@ -5388,24 +5665,32 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
+    <row r="121" spans="1:25" customHeight="1" ht="25">
+      <c r="A121" s="9">
+        <v>109</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
@@ -5415,24 +5700,32 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
+    <row r="122" spans="1:25" customHeight="1" ht="25">
+      <c r="A122" s="9">
+        <v>110</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
@@ -5442,24 +5735,32 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
+    <row r="123" spans="1:25" customHeight="1" ht="25">
+      <c r="A123" s="9">
+        <v>111</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
@@ -5469,24 +5770,32 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
+    <row r="124" spans="1:25" customHeight="1" ht="25">
+      <c r="A124" s="9">
+        <v>112</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
@@ -5496,24 +5805,32 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
+    <row r="125" spans="1:25" customHeight="1" ht="25">
+      <c r="A125" s="9">
+        <v>113</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
@@ -5523,24 +5840,32 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
+    <row r="126" spans="1:25" customHeight="1" ht="25">
+      <c r="A126" s="9">
+        <v>114</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
@@ -5550,24 +5875,32 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
+    <row r="127" spans="1:25" customHeight="1" ht="25">
+      <c r="A127" s="9">
+        <v>115</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
@@ -5577,24 +5910,32 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
-      <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
-      <c r="Q128" s="1"/>
+    <row r="128" spans="1:25" customHeight="1" ht="25">
+      <c r="A128" s="9">
+        <v>116</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
@@ -5604,24 +5945,32 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
+    <row r="129" spans="1:25" customHeight="1" ht="25">
+      <c r="A129" s="9">
+        <v>117</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
@@ -5631,24 +5980,32 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
+    <row r="130" spans="1:25" customHeight="1" ht="25">
+      <c r="A130" s="9">
+        <v>118</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
@@ -5658,24 +6015,32 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
+    <row r="131" spans="1:25" customHeight="1" ht="25">
+      <c r="A131" s="9">
+        <v>119</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
@@ -5685,24 +6050,32 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
+    <row r="132" spans="1:25" customHeight="1" ht="25">
+      <c r="A132" s="9">
+        <v>120</v>
+      </c>
+      <c r="B132" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
@@ -5712,24 +6085,32 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
+    <row r="133" spans="1:25" customHeight="1" ht="25">
+      <c r="A133" s="9">
+        <v>121</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
@@ -5739,24 +6120,32 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
+    <row r="134" spans="1:25" customHeight="1" ht="25">
+      <c r="A134" s="9">
+        <v>122</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="9"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
@@ -5766,24 +6155,32 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
+    <row r="135" spans="1:25" customHeight="1" ht="25">
+      <c r="A135" s="9">
+        <v>123</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="9"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="9"/>
+      <c r="Q135" s="9"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
@@ -5793,24 +6190,32 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
+    <row r="136" spans="1:25" customHeight="1" ht="25">
+      <c r="A136" s="9">
+        <v>124</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="9"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
@@ -5820,24 +6225,32 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
+    <row r="137" spans="1:25" customHeight="1" ht="25">
+      <c r="A137" s="9">
+        <v>125</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="9"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="9"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
@@ -5847,24 +6260,32 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
+    <row r="138" spans="1:25" customHeight="1" ht="25">
+      <c r="A138" s="9">
+        <v>126</v>
+      </c>
+      <c r="B138" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
@@ -5874,24 +6295,32 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
-      <c r="N139" s="1"/>
-      <c r="O139" s="1"/>
-      <c r="P139" s="1"/>
-      <c r="Q139" s="1"/>
+    <row r="139" spans="1:25" customHeight="1" ht="25">
+      <c r="A139" s="9">
+        <v>127</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
+      <c r="Q139" s="9"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
@@ -5901,24 +6330,32 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
+    <row r="140" spans="1:25" customHeight="1" ht="25">
+      <c r="A140" s="9">
+        <v>128</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="9"/>
+      <c r="Q140" s="9"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
@@ -5928,24 +6365,32 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
-      <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
-      <c r="P141" s="1"/>
-      <c r="Q141" s="1"/>
+    <row r="141" spans="1:25" customHeight="1" ht="25">
+      <c r="A141" s="9">
+        <v>129</v>
+      </c>
+      <c r="B141" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
@@ -5955,24 +6400,32 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
-      <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
-      <c r="P142" s="1"/>
-      <c r="Q142" s="1"/>
+    <row r="142" spans="1:25" customHeight="1" ht="25">
+      <c r="A142" s="9">
+        <v>130</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="9"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
@@ -5982,24 +6435,32 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
-      <c r="P143" s="1"/>
-      <c r="Q143" s="1"/>
+    <row r="143" spans="1:25" customHeight="1" ht="25">
+      <c r="A143" s="9">
+        <v>131</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
@@ -6009,24 +6470,32 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
+    <row r="144" spans="1:25" customHeight="1" ht="25">
+      <c r="A144" s="9">
+        <v>132</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="9"/>
+      <c r="Q144" s="9"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
@@ -6036,24 +6505,32 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
+    <row r="145" spans="1:25" customHeight="1" ht="25">
+      <c r="A145" s="9">
+        <v>133</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
@@ -6063,24 +6540,32 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
+    <row r="146" spans="1:25" customHeight="1" ht="25">
+      <c r="A146" s="9">
+        <v>134</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="9"/>
+      <c r="Q146" s="9"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
@@ -6090,24 +6575,32 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
+    <row r="147" spans="1:25" customHeight="1" ht="25">
+      <c r="A147" s="9">
+        <v>135</v>
+      </c>
+      <c r="B147" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C147" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="9"/>
+      <c r="O147" s="9"/>
+      <c r="P147" s="9"/>
+      <c r="Q147" s="9"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
@@ -6117,24 +6610,32 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
+    <row r="148" spans="1:25" customHeight="1" ht="25">
+      <c r="A148" s="9">
+        <v>136</v>
+      </c>
+      <c r="B148" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="9"/>
+      <c r="O148" s="9"/>
+      <c r="P148" s="9"/>
+      <c r="Q148" s="9"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
@@ -6144,24 +6645,32 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
-      <c r="N149" s="1"/>
-      <c r="O149" s="1"/>
-      <c r="P149" s="1"/>
-      <c r="Q149" s="1"/>
+    <row r="149" spans="1:25" customHeight="1" ht="25">
+      <c r="A149" s="9">
+        <v>137</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="9"/>
+      <c r="O149" s="9"/>
+      <c r="P149" s="9"/>
+      <c r="Q149" s="9"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
@@ -6171,24 +6680,32 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
+    <row r="150" spans="1:25" customHeight="1" ht="25">
+      <c r="A150" s="9">
+        <v>138</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="9"/>
+      <c r="O150" s="9"/>
+      <c r="P150" s="9"/>
+      <c r="Q150" s="9"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
@@ -6198,24 +6715,32 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
-      <c r="Q151" s="1"/>
+    <row r="151" spans="1:25" customHeight="1" ht="10">
+      <c r="A151" s="9">
+        <v>139</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="9"/>
+      <c r="O151" s="9"/>
+      <c r="P151" s="9"/>
+      <c r="Q151" s="9"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
@@ -6225,24 +6750,32 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
-      <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
-      <c r="Q152" s="1"/>
+    <row r="152" spans="1:25" customHeight="1" ht="25">
+      <c r="A152" s="9">
+        <v>140</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="9"/>
+      <c r="O152" s="9"/>
+      <c r="P152" s="9"/>
+      <c r="Q152" s="9"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
@@ -6252,24 +6785,32 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
-      <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
+    <row r="153" spans="1:25" customHeight="1" ht="25">
+      <c r="A153" s="9">
+        <v>141</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C153" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="9"/>
+      <c r="O153" s="9"/>
+      <c r="P153" s="9"/>
+      <c r="Q153" s="9"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
@@ -6279,24 +6820,32 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
-      <c r="K154" s="1"/>
-      <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
-      <c r="N154" s="1"/>
-      <c r="O154" s="1"/>
-      <c r="P154" s="1"/>
-      <c r="Q154" s="1"/>
+    <row r="154" spans="1:25" customHeight="1" ht="25">
+      <c r="A154" s="9">
+        <v>142</v>
+      </c>
+      <c r="B154" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="9"/>
+      <c r="O154" s="9"/>
+      <c r="P154" s="9"/>
+      <c r="Q154" s="9"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
@@ -6306,24 +6855,32 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
+    <row r="155" spans="1:25" customHeight="1" ht="25">
+      <c r="A155" s="9">
+        <v>143</v>
+      </c>
+      <c r="B155" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C155" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="9"/>
+      <c r="O155" s="9"/>
+      <c r="P155" s="9"/>
+      <c r="Q155" s="9"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
@@ -6333,24 +6890,32 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
-      <c r="Q156" s="1"/>
+    <row r="156" spans="1:25" customHeight="1" ht="25">
+      <c r="A156" s="9">
+        <v>144</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="9"/>
+      <c r="O156" s="9"/>
+      <c r="P156" s="9"/>
+      <c r="Q156" s="9"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
@@ -6360,24 +6925,32 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
+    <row r="157" spans="1:25" customHeight="1" ht="25">
+      <c r="A157" s="9">
+        <v>145</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="9"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="9"/>
+      <c r="O157" s="9"/>
+      <c r="P157" s="9"/>
+      <c r="Q157" s="9"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
@@ -6387,24 +6960,32 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
+    <row r="158" spans="1:25" customHeight="1" ht="25">
+      <c r="A158" s="9">
+        <v>146</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9"/>
+      <c r="M158" s="9"/>
+      <c r="N158" s="9"/>
+      <c r="O158" s="9"/>
+      <c r="P158" s="9"/>
+      <c r="Q158" s="9"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
@@ -6414,24 +6995,32 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
+    <row r="159" spans="1:25" customHeight="1" ht="25">
+      <c r="A159" s="9">
+        <v>147</v>
+      </c>
+      <c r="B159" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C159" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
+      <c r="L159" s="9"/>
+      <c r="M159" s="9"/>
+      <c r="N159" s="9"/>
+      <c r="O159" s="9"/>
+      <c r="P159" s="9"/>
+      <c r="Q159" s="9"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
@@ -6441,24 +7030,32 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
+    <row r="160" spans="1:25" customHeight="1" ht="25">
+      <c r="A160" s="9">
+        <v>148</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="9"/>
+      <c r="O160" s="9"/>
+      <c r="P160" s="9"/>
+      <c r="Q160" s="9"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
@@ -6468,24 +7065,32 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
+    <row r="161" spans="1:25" customHeight="1" ht="25">
+      <c r="A161" s="9">
+        <v>149</v>
+      </c>
+      <c r="B161" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+      <c r="M161" s="9"/>
+      <c r="N161" s="9"/>
+      <c r="O161" s="9"/>
+      <c r="P161" s="9"/>
+      <c r="Q161" s="9"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
@@ -6495,24 +7100,32 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
+    <row r="162" spans="1:25" customHeight="1" ht="25">
+      <c r="A162" s="9">
+        <v>150</v>
+      </c>
+      <c r="B162" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c r="L162" s="9"/>
+      <c r="M162" s="9"/>
+      <c r="N162" s="9"/>
+      <c r="O162" s="9"/>
+      <c r="P162" s="9"/>
+      <c r="Q162" s="9"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
@@ -6522,24 +7135,32 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
+    <row r="163" spans="1:25" customHeight="1" ht="25">
+      <c r="A163" s="9">
+        <v>151</v>
+      </c>
+      <c r="B163" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
+      <c r="L163" s="9"/>
+      <c r="M163" s="9"/>
+      <c r="N163" s="9"/>
+      <c r="O163" s="9"/>
+      <c r="P163" s="9"/>
+      <c r="Q163" s="9"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
@@ -6549,24 +7170,32 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
+    <row r="164" spans="1:25" customHeight="1" ht="25">
+      <c r="A164" s="9">
+        <v>152</v>
+      </c>
+      <c r="B164" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9"/>
+      <c r="M164" s="9"/>
+      <c r="N164" s="9"/>
+      <c r="O164" s="9"/>
+      <c r="P164" s="9"/>
+      <c r="Q164" s="9"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
@@ -6576,24 +7205,32 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
+    <row r="165" spans="1:25" customHeight="1" ht="25">
+      <c r="A165" s="9">
+        <v>153</v>
+      </c>
+      <c r="B165" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9"/>
+      <c r="L165" s="9"/>
+      <c r="M165" s="9"/>
+      <c r="N165" s="9"/>
+      <c r="O165" s="9"/>
+      <c r="P165" s="9"/>
+      <c r="Q165" s="9"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
@@ -6603,24 +7240,32 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
+    <row r="166" spans="1:25" customHeight="1" ht="25">
+      <c r="A166" s="9">
+        <v>154</v>
+      </c>
+      <c r="B166" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9"/>
+      <c r="L166" s="9"/>
+      <c r="M166" s="9"/>
+      <c r="N166" s="9"/>
+      <c r="O166" s="9"/>
+      <c r="P166" s="9"/>
+      <c r="Q166" s="9"/>
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
@@ -6630,24 +7275,32 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
+    <row r="167" spans="1:25" customHeight="1" ht="25">
+      <c r="A167" s="9">
+        <v>155</v>
+      </c>
+      <c r="B167" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="9"/>
+      <c r="L167" s="9"/>
+      <c r="M167" s="9"/>
+      <c r="N167" s="9"/>
+      <c r="O167" s="9"/>
+      <c r="P167" s="9"/>
+      <c r="Q167" s="9"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
@@ -6657,24 +7310,32 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
+    <row r="168" spans="1:25" customHeight="1" ht="25">
+      <c r="A168" s="9">
+        <v>156</v>
+      </c>
+      <c r="B168" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="9"/>
+      <c r="L168" s="9"/>
+      <c r="M168" s="9"/>
+      <c r="N168" s="9"/>
+      <c r="O168" s="9"/>
+      <c r="P168" s="9"/>
+      <c r="Q168" s="9"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
@@ -6684,24 +7345,32 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
+    <row r="169" spans="1:25" customHeight="1" ht="25">
+      <c r="A169" s="9">
+        <v>157</v>
+      </c>
+      <c r="B169" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
+      <c r="L169" s="9"/>
+      <c r="M169" s="9"/>
+      <c r="N169" s="9"/>
+      <c r="O169" s="9"/>
+      <c r="P169" s="9"/>
+      <c r="Q169" s="9"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
@@ -6711,24 +7380,32 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
+    <row r="170" spans="1:25" customHeight="1" ht="25">
+      <c r="A170" s="9">
+        <v>158</v>
+      </c>
+      <c r="B170" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="9"/>
+      <c r="L170" s="9"/>
+      <c r="M170" s="9"/>
+      <c r="N170" s="9"/>
+      <c r="O170" s="9"/>
+      <c r="P170" s="9"/>
+      <c r="Q170" s="9"/>
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
@@ -6738,24 +7415,32 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
+    <row r="171" spans="1:25" customHeight="1" ht="25">
+      <c r="A171" s="9">
+        <v>159</v>
+      </c>
+      <c r="B171" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
+      <c r="L171" s="9"/>
+      <c r="M171" s="9"/>
+      <c r="N171" s="9"/>
+      <c r="O171" s="9"/>
+      <c r="P171" s="9"/>
+      <c r="Q171" s="9"/>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
@@ -6765,24 +7450,32 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
-      <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
+    <row r="172" spans="1:25" customHeight="1" ht="25">
+      <c r="A172" s="9">
+        <v>160</v>
+      </c>
+      <c r="B172" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
+      <c r="L172" s="9"/>
+      <c r="M172" s="9"/>
+      <c r="N172" s="9"/>
+      <c r="O172" s="9"/>
+      <c r="P172" s="9"/>
+      <c r="Q172" s="9"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
@@ -6792,24 +7485,32 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
-      <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
+    <row r="173" spans="1:25" customHeight="1" ht="25">
+      <c r="A173" s="9">
+        <v>161</v>
+      </c>
+      <c r="B173" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="L173" s="9"/>
+      <c r="M173" s="9"/>
+      <c r="N173" s="9"/>
+      <c r="O173" s="9"/>
+      <c r="P173" s="9"/>
+      <c r="Q173" s="9"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
@@ -6819,24 +7520,32 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
+    <row r="174" spans="1:25" customHeight="1" ht="25">
+      <c r="A174" s="9">
+        <v>162</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
+      <c r="L174" s="9"/>
+      <c r="M174" s="9"/>
+      <c r="N174" s="9"/>
+      <c r="O174" s="9"/>
+      <c r="P174" s="9"/>
+      <c r="Q174" s="9"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
@@ -6846,24 +7555,32 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
-      <c r="Q175" s="1"/>
+    <row r="175" spans="1:25" customHeight="1" ht="25">
+      <c r="A175" s="9">
+        <v>163</v>
+      </c>
+      <c r="B175" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C175" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
+      <c r="K175" s="9"/>
+      <c r="L175" s="9"/>
+      <c r="M175" s="9"/>
+      <c r="N175" s="9"/>
+      <c r="O175" s="9"/>
+      <c r="P175" s="9"/>
+      <c r="Q175" s="9"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
@@ -6873,24 +7590,32 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
+    <row r="176" spans="1:25" customHeight="1" ht="25">
+      <c r="A176" s="9">
+        <v>164</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
+      <c r="L176" s="9"/>
+      <c r="M176" s="9"/>
+      <c r="N176" s="9"/>
+      <c r="O176" s="9"/>
+      <c r="P176" s="9"/>
+      <c r="Q176" s="9"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
@@ -6900,24 +7625,32 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
+    <row r="177" spans="1:25" customHeight="1" ht="25">
+      <c r="A177" s="9">
+        <v>165</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
+      <c r="L177" s="9"/>
+      <c r="M177" s="9"/>
+      <c r="N177" s="9"/>
+      <c r="O177" s="9"/>
+      <c r="P177" s="9"/>
+      <c r="Q177" s="9"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
@@ -6927,24 +7660,32 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
+    <row r="178" spans="1:25" customHeight="1" ht="25">
+      <c r="A178" s="9">
+        <v>166</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C178" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="9"/>
+      <c r="L178" s="9"/>
+      <c r="M178" s="9"/>
+      <c r="N178" s="9"/>
+      <c r="O178" s="9"/>
+      <c r="P178" s="9"/>
+      <c r="Q178" s="9"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
@@ -6954,24 +7695,32 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
+    <row r="179" spans="1:25" customHeight="1" ht="25">
+      <c r="A179" s="9">
+        <v>167</v>
+      </c>
+      <c r="B179" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C179" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
+      <c r="L179" s="9"/>
+      <c r="M179" s="9"/>
+      <c r="N179" s="9"/>
+      <c r="O179" s="9"/>
+      <c r="P179" s="9"/>
+      <c r="Q179" s="9"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
@@ -6981,24 +7730,32 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
+    <row r="180" spans="1:25" customHeight="1" ht="25">
+      <c r="A180" s="9">
+        <v>168</v>
+      </c>
+      <c r="B180" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
+      <c r="L180" s="9"/>
+      <c r="M180" s="9"/>
+      <c r="N180" s="9"/>
+      <c r="O180" s="9"/>
+      <c r="P180" s="9"/>
+      <c r="Q180" s="9"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
@@ -7008,24 +7765,32 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
+    <row r="181" spans="1:25" customHeight="1" ht="25">
+      <c r="A181" s="9">
+        <v>169</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C181" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
+      <c r="K181" s="9"/>
+      <c r="L181" s="9"/>
+      <c r="M181" s="9"/>
+      <c r="N181" s="9"/>
+      <c r="O181" s="9"/>
+      <c r="P181" s="9"/>
+      <c r="Q181" s="9"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
@@ -7035,24 +7800,32 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
-      <c r="Q182" s="1"/>
+    <row r="182" spans="1:25" customHeight="1" ht="25">
+      <c r="A182" s="9">
+        <v>170</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C182" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="9"/>
+      <c r="M182" s="9"/>
+      <c r="N182" s="9"/>
+      <c r="O182" s="9"/>
+      <c r="P182" s="9"/>
+      <c r="Q182" s="9"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
@@ -7062,24 +7835,32 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" customHeight="1" ht="14.25">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
-      <c r="Q183" s="1"/>
+    <row r="183" spans="1:25" customHeight="1" ht="25">
+      <c r="A183" s="9">
+        <v>171</v>
+      </c>
+      <c r="B183" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C183" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
+      <c r="L183" s="9"/>
+      <c r="M183" s="9"/>
+      <c r="N183" s="9"/>
+      <c r="O183" s="9"/>
+      <c r="P183" s="9"/>
+      <c r="Q183" s="9"/>
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
@@ -28606,7 +29387,7 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D42:G42"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.59055118110236" right="0.31496062992126" top="0.70866141732283" bottom="0.51181102362205" header="0" footer="0"/>

--- a/cssPMLReport.xlsx
+++ b/cssPMLReport.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>Office: DILG IV-A CALABARZON</t>
   </si>
@@ -91,430 +91,235 @@
 (Indicate Reason if Target is unmet)</t>
   </si>
   <si>
-    <t>HANNAH KRYSTEL CASTRO</t>
+    <t>MELISSA MAE MARERO</t>
   </si>
   <si>
-    <t>July 02, 2021</t>
+    <t>March 17, 2021</t>
   </si>
   <si>
-    <t>Free of charge</t>
+    <t>Free of Charge</t>
+  </si>
+  <si>
+    <t>REY ANN AVILLA</t>
+  </si>
+  <si>
+    <t>January 01, 1970</t>
+  </si>
+  <si>
+    <t>MICHIKO ESCALANTE</t>
+  </si>
+  <si>
+    <t>January 04, 2022</t>
+  </si>
+  <si>
+    <t>REUBEN JOSEPH JUSTO</t>
+  </si>
+  <si>
+    <t>QUENNIE MALLEON</t>
+  </si>
+  <si>
+    <t>APRILYN MAYRONG</t>
+  </si>
+  <si>
+    <t>TIRSO ALVIN III LAVINA</t>
+  </si>
+  <si>
+    <t>RYANN JAY ESTRADA</t>
+  </si>
+  <si>
+    <t>ODESSA TAN</t>
+  </si>
+  <si>
+    <t>JEFREY GAMBAN</t>
+  </si>
+  <si>
+    <t>January 07, 2022</t>
+  </si>
+  <si>
+    <t>EDNALYN LACSAMANA</t>
+  </si>
+  <si>
+    <t>JOYCE SAAVEDRA</t>
+  </si>
+  <si>
+    <t>January 12, 2022</t>
+  </si>
+  <si>
+    <t>MARREN JUANGCO</t>
+  </si>
+  <si>
+    <t>January 13, 2022</t>
+  </si>
+  <si>
+    <t>Approved By:</t>
+  </si>
+  <si>
+    <t>ALYSSA BARRAMEDA</t>
+  </si>
+  <si>
+    <t>January 18, 2022</t>
+  </si>
+  <si>
+    <t>JERNEL DEMIN</t>
+  </si>
+  <si>
+    <t>January 24, 2022</t>
+  </si>
+  <si>
+    <t>MARK JOSEPH MARQUEZ</t>
+  </si>
+  <si>
+    <t>JORGE ALVIN MONTEIRO</t>
+  </si>
+  <si>
+    <t>February 02, 2022</t>
+  </si>
+  <si>
+    <t>MAYBELLINE M. MONTEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMINADOR, JR. NOBLEZA </t>
+  </si>
+  <si>
+    <t>January 31, 2022</t>
+  </si>
+  <si>
+    <t>MARIA MELODY ZAMORA</t>
+  </si>
+  <si>
+    <t>February 11, 2022</t>
+  </si>
+  <si>
+    <t>Date:March 30, 2023</t>
+  </si>
+  <si>
+    <t>January 05, 2022</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>ANGELICA GRUESO</t>
+  </si>
+  <si>
+    <t>February 07, 2022</t>
+  </si>
+  <si>
+    <t>February 18, 2022</t>
+  </si>
+  <si>
+    <t>SHAZER LEO AMBAS</t>
+  </si>
+  <si>
+    <t>February 22, 2022</t>
+  </si>
+  <si>
+    <t>FIONA CARIZA  ARCE</t>
+  </si>
+  <si>
+    <t>JAYEN SAN DIEGO</t>
+  </si>
+  <si>
+    <t>REX MIRANDA</t>
+  </si>
+  <si>
+    <t>NEIL DE OCAMPO</t>
+  </si>
+  <si>
+    <t>RAMON NEDIC</t>
+  </si>
+  <si>
+    <t>MARY JANICE SOBREMONTE</t>
+  </si>
+  <si>
+    <t>February 15, 2022</t>
+  </si>
+  <si>
+    <t>GERALDINE NERY</t>
+  </si>
+  <si>
+    <t>March 15, 2022</t>
+  </si>
+  <si>
+    <t>JOHN PAUL NIEVA</t>
+  </si>
+  <si>
+    <t>February 23, 2022</t>
+  </si>
+  <si>
+    <t>ARLENE BANAAG</t>
+  </si>
+  <si>
+    <t>JENNA LYN CRUZ</t>
+  </si>
+  <si>
+    <t>March 22, 2022</t>
+  </si>
+  <si>
+    <t>LEIDELYN PAQUITA</t>
+  </si>
+  <si>
+    <t>ELDRIN BOI TIRONA</t>
+  </si>
+  <si>
+    <t>ASHTON JALRA GARCIA</t>
+  </si>
+  <si>
+    <t>DEXTER FEDELIZ</t>
+  </si>
+  <si>
+    <t>RENZ HARRY TOLEDO</t>
+  </si>
+  <si>
+    <t>MARIELLE ANN ODCHIGUE</t>
+  </si>
+  <si>
+    <t>January 01, 2022</t>
+  </si>
+  <si>
+    <t>January 03, 2022</t>
+  </si>
+  <si>
+    <t>LOUIE BUENAVENTURA</t>
+  </si>
+  <si>
+    <t>January 26, 2023</t>
+  </si>
+  <si>
+    <t>MARIA FE JASUL</t>
+  </si>
+  <si>
+    <t>January 30, 2023</t>
+  </si>
+  <si>
+    <t>February 20, 2023</t>
+  </si>
+  <si>
+    <t>KAREN AQUINO</t>
+  </si>
+  <si>
+    <t>RIEL JOHN  URRIQUIA</t>
+  </si>
+  <si>
+    <t>February 27, 2023</t>
+  </si>
+  <si>
+    <t>JONALYN CATE MAGCAYANG</t>
+  </si>
+  <si>
+    <t>February 28, 2023</t>
+  </si>
+  <si>
+    <t>THELMA BEÃƒâ€˜ABON</t>
+  </si>
+  <si>
+    <t>February 14, 2023</t>
   </si>
   <si>
     <t>EQUILA JESSA ALFORJA</t>
   </si>
   <si>
-    <t>July 05, 2021</t>
-  </si>
-  <si>
-    <t>MARY ROXANNE VICEDO</t>
-  </si>
-  <si>
-    <t>July 06, 2021</t>
-  </si>
-  <si>
-    <t>MARIELLE ANN ODCHIGUE</t>
-  </si>
-  <si>
-    <t>July 07, 2021</t>
-  </si>
-  <si>
-    <t>LOUIE JAKE BANALAN</t>
-  </si>
-  <si>
-    <t>MILCHA ESPEDILLON</t>
-  </si>
-  <si>
-    <t>July 08, 2021</t>
-  </si>
-  <si>
-    <t>RIZZALIE JOY EBREO</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL LLANTO</t>
-  </si>
-  <si>
-    <t>Free of Charge</t>
-  </si>
-  <si>
-    <t>RAYMOND JOSEPH PARAISO</t>
-  </si>
-  <si>
-    <t>July 09, 2021</t>
-  </si>
-  <si>
-    <t>July 12, 2021</t>
-  </si>
-  <si>
-    <t>JEFREY GAMBAN</t>
-  </si>
-  <si>
-    <t>July 14, 2021</t>
-  </si>
-  <si>
-    <t>July 15, 2021</t>
-  </si>
-  <si>
-    <t>CRISTEL MARIE FISCAL</t>
-  </si>
-  <si>
-    <t>JOEL GAONA</t>
-  </si>
-  <si>
-    <t>July 21, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROBINSON  MAAC </t>
-  </si>
-  <si>
-    <t>OLIVER MONTEFALCON</t>
-  </si>
-  <si>
-    <t>July 22, 2021</t>
-  </si>
-  <si>
-    <t>Approved By:</t>
-  </si>
-  <si>
-    <t>SHARMAINE MAE CATAPANG</t>
-  </si>
-  <si>
-    <t>July 23, 2021</t>
-  </si>
-  <si>
-    <t>SHAIRA GLEE</t>
-  </si>
-  <si>
-    <t>August 09, 2021</t>
-  </si>
-  <si>
-    <t>CELIO FRANCIA</t>
-  </si>
-  <si>
-    <t>July 30, 2021</t>
-  </si>
-  <si>
-    <t>REY ANN AVILLA</t>
-  </si>
-  <si>
-    <t>August 02, 2021</t>
-  </si>
-  <si>
-    <t>MAYBELLINE M. MONTEIRO</t>
-  </si>
-  <si>
-    <t>MYLA MANIBO</t>
-  </si>
-  <si>
-    <t>RAFAEL SATURNO</t>
-  </si>
-  <si>
-    <t>August 06, 2021</t>
-  </si>
-  <si>
-    <t>Date:October 12, 2022</t>
-  </si>
-  <si>
-    <t>ORVILLE OXEMER</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>CHERIELYN PORRAS</t>
-  </si>
-  <si>
-    <t>MARICHAR GAMBAN</t>
-  </si>
-  <si>
-    <t>August 10, 2021</t>
-  </si>
-  <si>
-    <t>CHERRIBIN PANGANIBAN</t>
-  </si>
-  <si>
-    <t>SARA ELAYNE CALIWAGAN</t>
-  </si>
-  <si>
-    <t>August 23, 2021</t>
-  </si>
-  <si>
-    <t>ANGELICA GRUESO</t>
-  </si>
-  <si>
-    <t>August 16, 2021</t>
-  </si>
-  <si>
-    <t>JOSEPH RYAN GERONIMO</t>
-  </si>
-  <si>
-    <t>August 17, 2021</t>
-  </si>
-  <si>
-    <t>ANGELITO CORTUNA</t>
-  </si>
-  <si>
-    <t>EVANGELINE ROSE DEL MORO</t>
-  </si>
-  <si>
-    <t>August 13, 2021</t>
-  </si>
-  <si>
-    <t>KRISTEL CATE FRANCISCO</t>
-  </si>
-  <si>
-    <t>MAYBELLINE MONTEIRO</t>
-  </si>
-  <si>
-    <t>JAMES AXEL ZUBELDIA</t>
-  </si>
-  <si>
-    <t>JUDY ANN  SILVA</t>
-  </si>
-  <si>
-    <t>August 18, 2021</t>
-  </si>
-  <si>
-    <t>JOY AVILA</t>
-  </si>
-  <si>
-    <t>September 03, 2021</t>
-  </si>
-  <si>
-    <t>GLACIE VILLANUEVA</t>
-  </si>
-  <si>
-    <t>JOJIE RUPERT  ABLAZA</t>
-  </si>
-  <si>
-    <t>AIVEE YVETTE PEREZ</t>
-  </si>
-  <si>
-    <t>September 28, 2021</t>
-  </si>
-  <si>
-    <t>September 27, 2021</t>
-  </si>
-  <si>
-    <t>ROXANNE ANTENOR</t>
-  </si>
-  <si>
-    <t>ABIGAIL NABUNG</t>
-  </si>
-  <si>
-    <t>September 23, 2021</t>
-  </si>
-  <si>
-    <t>KARYLL LINGAYO</t>
-  </si>
-  <si>
-    <t>PEDRYAN CRIS MENDOZA</t>
-  </si>
-  <si>
-    <t>September 22, 2021</t>
-  </si>
-  <si>
-    <t>MARIA MELODY ZAMORA</t>
-  </si>
-  <si>
-    <t>JAYBEE  ACO</t>
-  </si>
-  <si>
-    <t>September 21, 2021</t>
-  </si>
-  <si>
-    <t>ROSE ANN YARA</t>
-  </si>
-  <si>
-    <t>September 17, 2021</t>
-  </si>
-  <si>
-    <t>DANIEL CARLO FARENAS</t>
-  </si>
-  <si>
-    <t>JOHN CARLO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HAZEL ELAGO</t>
-  </si>
-  <si>
-    <t>September 16, 2021</t>
-  </si>
-  <si>
-    <t>MARY JANE LLEGOS</t>
-  </si>
-  <si>
-    <t>September 19, 2021</t>
-  </si>
-  <si>
-    <t>ARA MAE SAMIA</t>
-  </si>
-  <si>
-    <t>RYAN MACARAIG</t>
-  </si>
-  <si>
-    <t>September 15, 2021</t>
-  </si>
-  <si>
-    <t>JOACHIM  LACDANG</t>
-  </si>
-  <si>
-    <t>September 14, 2021</t>
-  </si>
-  <si>
-    <t>CHRISTIAN DACANAY</t>
-  </si>
-  <si>
-    <t>ABEL FULGENCIO</t>
-  </si>
-  <si>
-    <t>September 10, 2021</t>
-  </si>
-  <si>
-    <t>September 09, 2021</t>
-  </si>
-  <si>
-    <t>September 08, 2021</t>
-  </si>
-  <si>
-    <t>CRISTYVIEN ACLAN</t>
-  </si>
-  <si>
-    <t>EMMANUEL OBCIANA</t>
-  </si>
-  <si>
-    <t>September 06, 2021</t>
-  </si>
-  <si>
-    <t>September 07, 2021</t>
-  </si>
-  <si>
-    <t>September 02, 2021</t>
-  </si>
-  <si>
-    <t>CAMILLE GATDULA</t>
-  </si>
-  <si>
-    <t>September 01, 2021</t>
-  </si>
-  <si>
-    <t>MICHAEL LOUIE DE CASTRO</t>
-  </si>
-  <si>
-    <t>JAY EMERSON DE LEON</t>
-  </si>
-  <si>
-    <t>August 31, 2021</t>
-  </si>
-  <si>
-    <t>SHAYNE RENALYN MERCADO</t>
-  </si>
-  <si>
-    <t>August 27, 2021</t>
-  </si>
-  <si>
-    <t>September 29, 2021</t>
-  </si>
-  <si>
-    <t>EUNICE SALES</t>
-  </si>
-  <si>
-    <t>JAYSON CHAVEZ</t>
-  </si>
-  <si>
-    <t>September 30, 2021</t>
-  </si>
-  <si>
-    <t>August 19, 2021</t>
-  </si>
-  <si>
-    <t>August 20, 2021</t>
-  </si>
-  <si>
-    <t>August 05, 2021</t>
-  </si>
-  <si>
-    <t>September 13, 2021</t>
-  </si>
-  <si>
-    <t>ANABELLE NOCON</t>
-  </si>
-  <si>
-    <t>September 20, 2021</t>
-  </si>
-  <si>
-    <t>HADADEZER ABADIER</t>
-  </si>
-  <si>
-    <t>July 01, 2022</t>
-  </si>
-  <si>
-    <t>MARK JOSEPH MARQUEZ</t>
-  </si>
-  <si>
-    <t>July 04, 2022</t>
-  </si>
-  <si>
-    <t>MARY JANICE SOBREMONTE</t>
-  </si>
-  <si>
-    <t>July 05, 2022</t>
-  </si>
-  <si>
-    <t>REX MIRANDA</t>
-  </si>
-  <si>
-    <t>DARELL DE CHAVEZ</t>
-  </si>
-  <si>
-    <t>July 11, 2022</t>
-  </si>
-  <si>
-    <t>MICHIKO ESCALANTE</t>
-  </si>
-  <si>
-    <t>July 13, 2022</t>
-  </si>
-  <si>
-    <t>JOHN PAUL NIEVA</t>
-  </si>
-  <si>
-    <t>July 18, 2022</t>
-  </si>
-  <si>
-    <t>TIRSO ALVIN III LAVINA</t>
-  </si>
-  <si>
-    <t>July 19, 2022</t>
-  </si>
-  <si>
-    <t>July 20, 2022</t>
-  </si>
-  <si>
-    <t>JENNA LYN CRUZ</t>
-  </si>
-  <si>
-    <t>KATHERINE ANN TABERNILLA</t>
-  </si>
-  <si>
-    <t>July 21, 2022</t>
-  </si>
-  <si>
-    <t>LAURICE PIA ARANDELA</t>
-  </si>
-  <si>
-    <t>July 22, 2022</t>
-  </si>
-  <si>
-    <t>JAYBEE ACO</t>
-  </si>
-  <si>
-    <t>July 26, 2022</t>
-  </si>
-  <si>
-    <t>SHAZER LEO AMBAS</t>
-  </si>
-  <si>
-    <t>July 27, 2022</t>
+    <t>March 06, 2023</t>
   </si>
 </sst>
 </file>
@@ -737,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -813,7 +618,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -822,13 +627,10 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1198,7 +1000,7 @@
   <dimension ref="A1:Y979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="80" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1653,39 +1455,22 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="4">
-        <v>5</v>
-      </c>
-      <c r="J14" s="4">
-        <v>5</v>
-      </c>
-      <c r="K14" s="4">
-        <v>5</v>
-      </c>
-      <c r="L14" s="4" t="str">
-        <f>AVERAGE(D14:K14)</f>
-        <v>0</v>
-      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1705,39 +1490,22 @@
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="4">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="4">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4">
-        <v>5</v>
-      </c>
-      <c r="K15" s="4">
-        <v>5</v>
-      </c>
-      <c r="L15" s="4" t="str">
-        <f>AVERAGE(D15:K15)</f>
-        <v>0</v>
-      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1757,39 +1525,22 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4">
-        <v>5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="4">
-        <v>5</v>
-      </c>
-      <c r="J16" s="4">
-        <v>5</v>
-      </c>
-      <c r="K16" s="4">
-        <v>5</v>
-      </c>
-      <c r="L16" s="4" t="str">
-        <f>AVERAGE(D16:K16)</f>
-        <v>0</v>
-      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1809,39 +1560,22 @@
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4">
-        <v>5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="4">
-        <v>5</v>
-      </c>
-      <c r="J17" s="4">
-        <v>5</v>
-      </c>
-      <c r="K17" s="4">
-        <v>5</v>
-      </c>
-      <c r="L17" s="4" t="str">
-        <f>AVERAGE(D17:K17)</f>
-        <v>0</v>
-      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1861,39 +1595,22 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="4">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4">
-        <v>5</v>
-      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="4">
-        <v>5</v>
-      </c>
-      <c r="J18" s="4">
-        <v>5</v>
-      </c>
-      <c r="K18" s="4">
-        <v>5</v>
-      </c>
-      <c r="L18" s="4" t="str">
-        <f>AVERAGE(D18:K18)</f>
-        <v>0</v>
-      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1913,39 +1630,22 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="4">
-        <v>5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4">
-        <v>5</v>
-      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="4">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4">
-        <v>5</v>
-      </c>
-      <c r="K19" s="4">
-        <v>5</v>
-      </c>
-      <c r="L19" s="4" t="str">
-        <f>AVERAGE(D19:K19)</f>
-        <v>0</v>
-      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1965,39 +1665,22 @@
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4">
-        <v>5</v>
-      </c>
-      <c r="E20" s="4">
-        <v>5</v>
-      </c>
-      <c r="F20" s="4">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4">
-        <v>5</v>
-      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="4">
-        <v>5</v>
-      </c>
-      <c r="J20" s="4">
-        <v>5</v>
-      </c>
-      <c r="K20" s="4">
-        <v>5</v>
-      </c>
-      <c r="L20" s="4" t="str">
-        <f>AVERAGE(D20:K20)</f>
-        <v>0</v>
-      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -2017,39 +1700,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4">
-        <v>5</v>
-      </c>
-      <c r="F21" s="4">
-        <v>5</v>
-      </c>
-      <c r="G21" s="4">
-        <v>5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="4">
-        <v>5</v>
-      </c>
-      <c r="J21" s="4">
-        <v>5</v>
-      </c>
-      <c r="K21" s="4">
-        <v>5</v>
-      </c>
-      <c r="L21" s="4" t="str">
-        <f>AVERAGE(D21:K21)</f>
-        <v>0</v>
-      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -2069,39 +1735,22 @@
         <v>10</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="4">
-        <v>5</v>
-      </c>
-      <c r="E22" s="4">
-        <v>5</v>
-      </c>
-      <c r="F22" s="4">
-        <v>5</v>
-      </c>
-      <c r="G22" s="4">
-        <v>5</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="4">
-        <v>5</v>
-      </c>
-      <c r="J22" s="4">
-        <v>5</v>
-      </c>
-      <c r="K22" s="4">
-        <v>5</v>
-      </c>
-      <c r="L22" s="4" t="str">
-        <f>AVERAGE(D22:K22)</f>
-        <v>0</v>
-      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2121,39 +1770,22 @@
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="4">
-        <v>5</v>
-      </c>
-      <c r="E23" s="4">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4">
-        <v>5</v>
-      </c>
-      <c r="G23" s="4">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="4">
-        <v>4</v>
-      </c>
-      <c r="J23" s="4">
-        <v>4</v>
-      </c>
-      <c r="K23" s="4">
-        <v>4</v>
-      </c>
-      <c r="L23" s="4" t="str">
-        <f>AVERAGE(D23:K23)</f>
-        <v>0</v>
-      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -2173,39 +1805,22 @@
         <v>12</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4</v>
-      </c>
-      <c r="E24" s="4">
-        <v>4</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4</v>
-      </c>
-      <c r="G24" s="4">
-        <v>4</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="4">
-        <v>5</v>
-      </c>
-      <c r="J24" s="4">
-        <v>5</v>
-      </c>
-      <c r="K24" s="4">
-        <v>5</v>
-      </c>
-      <c r="L24" s="4" t="str">
-        <f>AVERAGE(D24:K24)</f>
-        <v>0</v>
-      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -2225,39 +1840,22 @@
         <v>13</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="4">
-        <v>5</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4">
-        <v>5</v>
-      </c>
-      <c r="G25" s="4">
-        <v>5</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="4">
-        <v>5</v>
-      </c>
-      <c r="J25" s="4">
-        <v>5</v>
-      </c>
-      <c r="K25" s="4">
-        <v>5</v>
-      </c>
-      <c r="L25" s="4" t="str">
-        <f>AVERAGE(D25:K25)</f>
-        <v>0</v>
-      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -2277,39 +1875,24 @@
         <v>14</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="4">
-        <v>5</v>
-      </c>
-      <c r="E26" s="4">
-        <v>5</v>
-      </c>
-      <c r="F26" s="4">
-        <v>5</v>
-      </c>
-      <c r="G26" s="4">
-        <v>5</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="4">
-        <v>5</v>
-      </c>
-      <c r="J26" s="4">
-        <v>5</v>
-      </c>
-      <c r="K26" s="4">
-        <v>5</v>
-      </c>
-      <c r="L26" s="4" t="str">
-        <f>AVERAGE(D26:K26)</f>
-        <v>0</v>
-      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -2329,39 +1912,22 @@
         <v>15</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="4">
-        <v>5</v>
-      </c>
-      <c r="E27" s="4">
-        <v>5</v>
-      </c>
-      <c r="F27" s="4">
-        <v>5</v>
-      </c>
-      <c r="G27" s="4">
-        <v>5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="4">
-        <v>5</v>
-      </c>
-      <c r="J27" s="4">
-        <v>5</v>
-      </c>
-      <c r="K27" s="4">
-        <v>5</v>
-      </c>
-      <c r="L27" s="4" t="str">
-        <f>AVERAGE(D27:K27)</f>
-        <v>0</v>
-      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -2381,39 +1947,22 @@
         <v>16</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="4">
-        <v>5</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5</v>
-      </c>
-      <c r="F28" s="4">
-        <v>5</v>
-      </c>
-      <c r="G28" s="4">
-        <v>5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="4">
-        <v>5</v>
-      </c>
-      <c r="J28" s="4">
-        <v>5</v>
-      </c>
-      <c r="K28" s="4">
-        <v>5</v>
-      </c>
-      <c r="L28" s="4" t="str">
-        <f>AVERAGE(D28:K28)</f>
-        <v>0</v>
-      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -2433,31 +1982,22 @@
         <v>17</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="4">
-        <v>5</v>
-      </c>
-      <c r="E29" s="4">
-        <v>5</v>
-      </c>
-      <c r="F29" s="4">
-        <v>5</v>
-      </c>
-      <c r="G29" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="4" t="str">
-        <f>AVERAGE(D29:K29)</f>
-        <v>0</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -2477,17 +2017,17 @@
         <v>18</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="D30" s="26"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -2512,17 +2052,19 @@
         <v>19</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -2547,17 +2089,17 @@
         <v>20</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="D32" s="26"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -2582,17 +2124,19 @@
         <v>21</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -2617,17 +2161,19 @@
         <v>22</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="29"/>
       <c r="H34" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -2652,17 +2198,17 @@
         <v>23</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -2687,17 +2233,17 @@
         <v>24</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -2722,17 +2268,17 @@
         <v>25</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -2757,17 +2303,17 @@
         <v>26</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -2792,17 +2338,17 @@
         <v>27</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -2827,17 +2373,17 @@
         <v>28</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -2862,17 +2408,17 @@
         <v>29</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -2897,19 +2443,17 @@
         <v>30</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>48</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="24"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -2934,17 +2478,17 @@
         <v>31</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="24"/>
+      <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -2969,17 +2513,17 @@
         <v>32</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="24"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -3004,17 +2548,17 @@
         <v>33</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="24"/>
+      <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -3039,17 +2583,17 @@
         <v>34</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="24"/>
+      <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -3074,19 +2618,17 @@
         <v>35</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>57</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="24"/>
+      <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -3111,17 +2653,17 @@
         <v>36</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="24"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -3146,19 +2688,17 @@
         <v>37</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>61</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="28"/>
+      <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3183,19 +2723,17 @@
         <v>38</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3220,17 +2758,17 @@
         <v>39</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3255,17 +2793,17 @@
         <v>40</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3290,17 +2828,17 @@
         <v>41</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3325,17 +2863,17 @@
         <v>42</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3360,17 +2898,17 @@
         <v>43</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3395,17 +2933,17 @@
         <v>44</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3430,17 +2968,17 @@
         <v>45</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3465,17 +3003,17 @@
         <v>46</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3500,17 +3038,17 @@
         <v>47</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3535,17 +3073,17 @@
         <v>48</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3570,17 +3108,17 @@
         <v>49</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3605,17 +3143,17 @@
         <v>50</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3643,14 +3181,14 @@
         <v>74</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3675,17 +3213,17 @@
         <v>52</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3710,17 +3248,17 @@
         <v>53</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3745,17 +3283,17 @@
         <v>54</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3780,17 +3318,17 @@
         <v>55</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3815,17 +3353,17 @@
         <v>56</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3850,17 +3388,17 @@
         <v>57</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3885,17 +3423,17 @@
         <v>58</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3920,17 +3458,17 @@
         <v>59</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3950,22 +3488,22 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" customHeight="1" ht="10">
+    <row r="72" spans="1:25" customHeight="1" ht="25">
       <c r="A72" s="9">
         <v>60</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3990,17 +3528,17 @@
         <v>61</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4025,17 +3563,17 @@
         <v>62</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4060,17 +3598,17 @@
         <v>63</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4095,17 +3633,17 @@
         <v>64</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4130,17 +3668,17 @@
         <v>65</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4165,17 +3703,17 @@
         <v>66</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4195,22 +3733,22 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" customHeight="1" ht="10">
+    <row r="79" spans="1:25" customHeight="1" ht="25">
       <c r="A79" s="9">
         <v>67</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4235,17 +3773,17 @@
         <v>68</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4270,17 +3808,17 @@
         <v>69</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4305,17 +3843,17 @@
         <v>70</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4335,32 +3873,24 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" customHeight="1" ht="25">
-      <c r="A83" s="9">
-        <v>71</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
+    <row r="83" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
@@ -4370,32 +3900,24 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" customHeight="1" ht="25">
-      <c r="A84" s="9">
-        <v>72</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="9"/>
+    <row r="84" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
@@ -4405,32 +3927,24 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" customHeight="1" ht="25">
-      <c r="A85" s="9">
-        <v>73</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
+    <row r="85" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
@@ -4440,32 +3954,24 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" customHeight="1" ht="25">
-      <c r="A86" s="9">
-        <v>74</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
+    <row r="86" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
@@ -4475,32 +3981,24 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" customHeight="1" ht="25">
-      <c r="A87" s="9">
-        <v>75</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
+    <row r="87" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
@@ -4510,32 +4008,24 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" customHeight="1" ht="25">
-      <c r="A88" s="9">
-        <v>76</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="9"/>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="9"/>
+    <row r="88" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
@@ -4545,32 +4035,24 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" customHeight="1" ht="25">
-      <c r="A89" s="9">
-        <v>77</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9"/>
+    <row r="89" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
@@ -4580,32 +4062,24 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" customHeight="1" ht="25">
-      <c r="A90" s="9">
-        <v>78</v>
-      </c>
-      <c r="B90" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
+    <row r="90" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
@@ -4615,32 +4089,24 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" customHeight="1" ht="25">
-      <c r="A91" s="9">
-        <v>79</v>
-      </c>
-      <c r="B91" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
+    <row r="91" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
@@ -4650,32 +4116,24 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" customHeight="1" ht="25">
-      <c r="A92" s="9">
-        <v>80</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
+    <row r="92" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
@@ -4685,32 +4143,24 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" customHeight="1" ht="25">
-      <c r="A93" s="9">
-        <v>81</v>
-      </c>
-      <c r="B93" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="9"/>
+    <row r="93" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
@@ -4720,32 +4170,24 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" customHeight="1" ht="25">
-      <c r="A94" s="9">
-        <v>82</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9"/>
+    <row r="94" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
@@ -4755,32 +4197,24 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" customHeight="1" ht="25">
-      <c r="A95" s="9">
-        <v>83</v>
-      </c>
-      <c r="B95" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="9"/>
+    <row r="95" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
@@ -4790,32 +4224,24 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" customHeight="1" ht="25">
-      <c r="A96" s="9">
-        <v>84</v>
-      </c>
-      <c r="B96" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="9"/>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="9"/>
+    <row r="96" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
@@ -4825,32 +4251,24 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" customHeight="1" ht="25">
-      <c r="A97" s="9">
-        <v>85</v>
-      </c>
-      <c r="B97" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="9"/>
+    <row r="97" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
@@ -4860,32 +4278,24 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" customHeight="1" ht="25">
-      <c r="A98" s="9">
-        <v>86</v>
-      </c>
-      <c r="B98" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="9"/>
+    <row r="98" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
@@ -4895,32 +4305,24 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" customHeight="1" ht="25">
-      <c r="A99" s="9">
-        <v>87</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
+    <row r="99" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
@@ -4930,32 +4332,24 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" customHeight="1" ht="25">
-      <c r="A100" s="9">
-        <v>88</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
-      <c r="O100" s="9"/>
-      <c r="P100" s="9"/>
-      <c r="Q100" s="9"/>
+    <row r="100" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
@@ -4965,32 +4359,24 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" customHeight="1" ht="25">
-      <c r="A101" s="9">
-        <v>89</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
-      <c r="N101" s="9"/>
-      <c r="O101" s="9"/>
-      <c r="P101" s="9"/>
-      <c r="Q101" s="9"/>
+    <row r="101" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
@@ -5000,32 +4386,24 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" customHeight="1" ht="25">
-      <c r="A102" s="9">
-        <v>90</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="9"/>
-      <c r="O102" s="9"/>
-      <c r="P102" s="9"/>
-      <c r="Q102" s="9"/>
+    <row r="102" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
@@ -5035,32 +4413,24 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" customHeight="1" ht="25">
-      <c r="A103" s="9">
-        <v>91</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
-      <c r="O103" s="9"/>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="9"/>
+    <row r="103" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
@@ -5070,32 +4440,24 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" customHeight="1" ht="25">
-      <c r="A104" s="9">
-        <v>92</v>
-      </c>
-      <c r="B104" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="9"/>
-      <c r="O104" s="9"/>
-      <c r="P104" s="9"/>
-      <c r="Q104" s="9"/>
+    <row r="104" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
@@ -5105,32 +4467,24 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" customHeight="1" ht="25">
-      <c r="A105" s="9">
-        <v>93</v>
-      </c>
-      <c r="B105" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
-      <c r="O105" s="9"/>
-      <c r="P105" s="9"/>
-      <c r="Q105" s="9"/>
+    <row r="105" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
@@ -5140,32 +4494,24 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" customHeight="1" ht="25">
-      <c r="A106" s="9">
-        <v>94</v>
-      </c>
-      <c r="B106" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="9"/>
-      <c r="Q106" s="9"/>
+    <row r="106" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
@@ -5175,32 +4521,24 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" customHeight="1" ht="25">
-      <c r="A107" s="9">
-        <v>95</v>
-      </c>
-      <c r="B107" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-      <c r="N107" s="9"/>
-      <c r="O107" s="9"/>
-      <c r="P107" s="9"/>
-      <c r="Q107" s="9"/>
+    <row r="107" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
@@ -5210,32 +4548,24 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" customHeight="1" ht="25">
-      <c r="A108" s="9">
-        <v>96</v>
-      </c>
-      <c r="B108" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
-      <c r="N108" s="9"/>
-      <c r="O108" s="9"/>
-      <c r="P108" s="9"/>
-      <c r="Q108" s="9"/>
+    <row r="108" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
@@ -5245,32 +4575,24 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" customHeight="1" ht="25">
-      <c r="A109" s="9">
-        <v>97</v>
-      </c>
-      <c r="B109" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
-      <c r="N109" s="9"/>
-      <c r="O109" s="9"/>
-      <c r="P109" s="9"/>
-      <c r="Q109" s="9"/>
+    <row r="109" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
@@ -5280,32 +4602,24 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" customHeight="1" ht="25">
-      <c r="A110" s="9">
-        <v>98</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
-      <c r="N110" s="9"/>
-      <c r="O110" s="9"/>
-      <c r="P110" s="9"/>
-      <c r="Q110" s="9"/>
+    <row r="110" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
@@ -5315,32 +4629,24 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" customHeight="1" ht="25">
-      <c r="A111" s="9">
-        <v>99</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="9"/>
-      <c r="P111" s="9"/>
-      <c r="Q111" s="9"/>
+    <row r="111" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
@@ -5350,32 +4656,24 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" customHeight="1" ht="25">
-      <c r="A112" s="9">
-        <v>100</v>
-      </c>
-      <c r="B112" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="9"/>
-      <c r="N112" s="9"/>
-      <c r="O112" s="9"/>
-      <c r="P112" s="9"/>
-      <c r="Q112" s="9"/>
+    <row r="112" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
@@ -5385,32 +4683,24 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" customHeight="1" ht="25">
-      <c r="A113" s="9">
-        <v>101</v>
-      </c>
-      <c r="B113" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
-      <c r="N113" s="9"/>
-      <c r="O113" s="9"/>
-      <c r="P113" s="9"/>
-      <c r="Q113" s="9"/>
+    <row r="113" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
@@ -5420,32 +4710,24 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" customHeight="1" ht="25">
-      <c r="A114" s="9">
-        <v>102</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
-      <c r="O114" s="9"/>
-      <c r="P114" s="9"/>
-      <c r="Q114" s="9"/>
+    <row r="114" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
@@ -5455,32 +4737,24 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" customHeight="1" ht="25">
-      <c r="A115" s="9">
-        <v>103</v>
-      </c>
-      <c r="B115" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
-      <c r="N115" s="9"/>
-      <c r="O115" s="9"/>
-      <c r="P115" s="9"/>
-      <c r="Q115" s="9"/>
+    <row r="115" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
@@ -5490,32 +4764,24 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" customHeight="1" ht="25">
-      <c r="A116" s="9">
-        <v>104</v>
-      </c>
-      <c r="B116" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-      <c r="K116" s="9"/>
-      <c r="L116" s="9"/>
-      <c r="M116" s="9"/>
-      <c r="N116" s="9"/>
-      <c r="O116" s="9"/>
-      <c r="P116" s="9"/>
-      <c r="Q116" s="9"/>
+    <row r="116" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
@@ -5525,32 +4791,24 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" customHeight="1" ht="25">
-      <c r="A117" s="9">
-        <v>105</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
-      <c r="M117" s="9"/>
-      <c r="N117" s="9"/>
-      <c r="O117" s="9"/>
-      <c r="P117" s="9"/>
-      <c r="Q117" s="9"/>
+    <row r="117" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
@@ -5560,32 +4818,24 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" customHeight="1" ht="25">
-      <c r="A118" s="9">
-        <v>106</v>
-      </c>
-      <c r="B118" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-      <c r="M118" s="9"/>
-      <c r="N118" s="9"/>
-      <c r="O118" s="9"/>
-      <c r="P118" s="9"/>
-      <c r="Q118" s="9"/>
+    <row r="118" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
@@ -5595,32 +4845,24 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" customHeight="1" ht="25">
-      <c r="A119" s="9">
-        <v>107</v>
-      </c>
-      <c r="B119" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
-      <c r="M119" s="9"/>
-      <c r="N119" s="9"/>
-      <c r="O119" s="9"/>
-      <c r="P119" s="9"/>
-      <c r="Q119" s="9"/>
+    <row r="119" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
@@ -5630,32 +4872,24 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" customHeight="1" ht="25">
-      <c r="A120" s="9">
-        <v>108</v>
-      </c>
-      <c r="B120" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C120" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-      <c r="M120" s="9"/>
-      <c r="N120" s="9"/>
-      <c r="O120" s="9"/>
-      <c r="P120" s="9"/>
-      <c r="Q120" s="9"/>
+    <row r="120" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
@@ -5665,32 +4899,24 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" customHeight="1" ht="25">
-      <c r="A121" s="9">
-        <v>109</v>
-      </c>
-      <c r="B121" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
-      <c r="M121" s="9"/>
-      <c r="N121" s="9"/>
-      <c r="O121" s="9"/>
-      <c r="P121" s="9"/>
-      <c r="Q121" s="9"/>
+    <row r="121" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
@@ -5700,32 +4926,24 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" customHeight="1" ht="25">
-      <c r="A122" s="9">
-        <v>110</v>
-      </c>
-      <c r="B122" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
-      <c r="N122" s="9"/>
-      <c r="O122" s="9"/>
-      <c r="P122" s="9"/>
-      <c r="Q122" s="9"/>
+    <row r="122" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
@@ -5735,32 +4953,24 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" customHeight="1" ht="25">
-      <c r="A123" s="9">
-        <v>111</v>
-      </c>
-      <c r="B123" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
-      <c r="N123" s="9"/>
-      <c r="O123" s="9"/>
-      <c r="P123" s="9"/>
-      <c r="Q123" s="9"/>
+    <row r="123" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
@@ -5770,32 +4980,24 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" customHeight="1" ht="25">
-      <c r="A124" s="9">
-        <v>112</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="9"/>
-      <c r="N124" s="9"/>
-      <c r="O124" s="9"/>
-      <c r="P124" s="9"/>
-      <c r="Q124" s="9"/>
+    <row r="124" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
@@ -5805,32 +5007,24 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" customHeight="1" ht="25">
-      <c r="A125" s="9">
-        <v>113</v>
-      </c>
-      <c r="B125" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
-      <c r="N125" s="9"/>
-      <c r="O125" s="9"/>
-      <c r="P125" s="9"/>
-      <c r="Q125" s="9"/>
+    <row r="125" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
@@ -5840,32 +5034,24 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" customHeight="1" ht="25">
-      <c r="A126" s="9">
-        <v>114</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-      <c r="M126" s="9"/>
-      <c r="N126" s="9"/>
-      <c r="O126" s="9"/>
-      <c r="P126" s="9"/>
-      <c r="Q126" s="9"/>
+    <row r="126" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
@@ -5875,32 +5061,24 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" customHeight="1" ht="25">
-      <c r="A127" s="9">
-        <v>115</v>
-      </c>
-      <c r="B127" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
-      <c r="N127" s="9"/>
-      <c r="O127" s="9"/>
-      <c r="P127" s="9"/>
-      <c r="Q127" s="9"/>
+    <row r="127" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
@@ -5910,32 +5088,24 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" customHeight="1" ht="25">
-      <c r="A128" s="9">
-        <v>116</v>
-      </c>
-      <c r="B128" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C128" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-      <c r="M128" s="9"/>
-      <c r="N128" s="9"/>
-      <c r="O128" s="9"/>
-      <c r="P128" s="9"/>
-      <c r="Q128" s="9"/>
+    <row r="128" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
@@ -5945,32 +5115,24 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" customHeight="1" ht="25">
-      <c r="A129" s="9">
-        <v>117</v>
-      </c>
-      <c r="B129" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
-      <c r="N129" s="9"/>
-      <c r="O129" s="9"/>
-      <c r="P129" s="9"/>
-      <c r="Q129" s="9"/>
+    <row r="129" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
@@ -5980,32 +5142,24 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" customHeight="1" ht="25">
-      <c r="A130" s="9">
-        <v>118</v>
-      </c>
-      <c r="B130" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C130" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
-      <c r="N130" s="9"/>
-      <c r="O130" s="9"/>
-      <c r="P130" s="9"/>
-      <c r="Q130" s="9"/>
+    <row r="130" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
@@ -6015,32 +5169,24 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" customHeight="1" ht="25">
-      <c r="A131" s="9">
-        <v>119</v>
-      </c>
-      <c r="B131" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="9"/>
-      <c r="O131" s="9"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
+    <row r="131" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
@@ -6050,32 +5196,24 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" customHeight="1" ht="25">
-      <c r="A132" s="9">
-        <v>120</v>
-      </c>
-      <c r="B132" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C132" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="9"/>
-      <c r="O132" s="9"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
+    <row r="132" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
@@ -6085,32 +5223,24 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" customHeight="1" ht="25">
-      <c r="A133" s="9">
-        <v>121</v>
-      </c>
-      <c r="B133" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-      <c r="M133" s="9"/>
-      <c r="N133" s="9"/>
-      <c r="O133" s="9"/>
-      <c r="P133" s="9"/>
-      <c r="Q133" s="9"/>
+    <row r="133" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
@@ -6120,32 +5250,24 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" customHeight="1" ht="25">
-      <c r="A134" s="9">
-        <v>122</v>
-      </c>
-      <c r="B134" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C134" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
-      <c r="M134" s="9"/>
-      <c r="N134" s="9"/>
-      <c r="O134" s="9"/>
-      <c r="P134" s="9"/>
-      <c r="Q134" s="9"/>
+    <row r="134" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
@@ -6155,32 +5277,24 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" customHeight="1" ht="25">
-      <c r="A135" s="9">
-        <v>123</v>
-      </c>
-      <c r="B135" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C135" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
-      <c r="L135" s="9"/>
-      <c r="M135" s="9"/>
-      <c r="N135" s="9"/>
-      <c r="O135" s="9"/>
-      <c r="P135" s="9"/>
-      <c r="Q135" s="9"/>
+    <row r="135" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
@@ -6190,32 +5304,24 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" customHeight="1" ht="25">
-      <c r="A136" s="9">
-        <v>124</v>
-      </c>
-      <c r="B136" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
-      <c r="L136" s="9"/>
-      <c r="M136" s="9"/>
-      <c r="N136" s="9"/>
-      <c r="O136" s="9"/>
-      <c r="P136" s="9"/>
-      <c r="Q136" s="9"/>
+    <row r="136" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
@@ -6225,32 +5331,24 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" customHeight="1" ht="25">
-      <c r="A137" s="9">
-        <v>125</v>
-      </c>
-      <c r="B137" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9"/>
-      <c r="K137" s="9"/>
-      <c r="L137" s="9"/>
-      <c r="M137" s="9"/>
-      <c r="N137" s="9"/>
-      <c r="O137" s="9"/>
-      <c r="P137" s="9"/>
-      <c r="Q137" s="9"/>
+    <row r="137" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
@@ -6260,32 +5358,24 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" customHeight="1" ht="25">
-      <c r="A138" s="9">
-        <v>126</v>
-      </c>
-      <c r="B138" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
-      <c r="K138" s="9"/>
-      <c r="L138" s="9"/>
-      <c r="M138" s="9"/>
-      <c r="N138" s="9"/>
-      <c r="O138" s="9"/>
-      <c r="P138" s="9"/>
-      <c r="Q138" s="9"/>
+    <row r="138" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
@@ -6295,32 +5385,24 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" customHeight="1" ht="25">
-      <c r="A139" s="9">
-        <v>127</v>
-      </c>
-      <c r="B139" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C139" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
-      <c r="K139" s="9"/>
-      <c r="L139" s="9"/>
-      <c r="M139" s="9"/>
-      <c r="N139" s="9"/>
-      <c r="O139" s="9"/>
-      <c r="P139" s="9"/>
-      <c r="Q139" s="9"/>
+    <row r="139" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
@@ -6330,32 +5412,24 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" customHeight="1" ht="25">
-      <c r="A140" s="9">
-        <v>128</v>
-      </c>
-      <c r="B140" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C140" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
-      <c r="K140" s="9"/>
-      <c r="L140" s="9"/>
-      <c r="M140" s="9"/>
-      <c r="N140" s="9"/>
-      <c r="O140" s="9"/>
-      <c r="P140" s="9"/>
-      <c r="Q140" s="9"/>
+    <row r="140" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
@@ -6365,32 +5439,24 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" customHeight="1" ht="25">
-      <c r="A141" s="9">
-        <v>129</v>
-      </c>
-      <c r="B141" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
-      <c r="K141" s="9"/>
-      <c r="L141" s="9"/>
-      <c r="M141" s="9"/>
-      <c r="N141" s="9"/>
-      <c r="O141" s="9"/>
-      <c r="P141" s="9"/>
-      <c r="Q141" s="9"/>
+    <row r="141" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
@@ -6400,32 +5466,24 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" customHeight="1" ht="25">
-      <c r="A142" s="9">
-        <v>130</v>
-      </c>
-      <c r="B142" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="9"/>
-      <c r="M142" s="9"/>
-      <c r="N142" s="9"/>
-      <c r="O142" s="9"/>
-      <c r="P142" s="9"/>
-      <c r="Q142" s="9"/>
+    <row r="142" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
@@ -6435,32 +5493,24 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" customHeight="1" ht="25">
-      <c r="A143" s="9">
-        <v>131</v>
-      </c>
-      <c r="B143" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C143" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I143" s="9"/>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="9"/>
-      <c r="N143" s="9"/>
-      <c r="O143" s="9"/>
-      <c r="P143" s="9"/>
-      <c r="Q143" s="9"/>
+    <row r="143" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
@@ -6470,32 +5520,24 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" customHeight="1" ht="25">
-      <c r="A144" s="9">
-        <v>132</v>
-      </c>
-      <c r="B144" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C144" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
-      <c r="L144" s="9"/>
-      <c r="M144" s="9"/>
-      <c r="N144" s="9"/>
-      <c r="O144" s="9"/>
-      <c r="P144" s="9"/>
-      <c r="Q144" s="9"/>
+    <row r="144" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
@@ -6505,32 +5547,24 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" customHeight="1" ht="25">
-      <c r="A145" s="9">
-        <v>133</v>
-      </c>
-      <c r="B145" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C145" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
-      <c r="M145" s="9"/>
-      <c r="N145" s="9"/>
-      <c r="O145" s="9"/>
-      <c r="P145" s="9"/>
-      <c r="Q145" s="9"/>
+    <row r="145" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
@@ -6540,32 +5574,24 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" customHeight="1" ht="25">
-      <c r="A146" s="9">
-        <v>134</v>
-      </c>
-      <c r="B146" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C146" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
-      <c r="K146" s="9"/>
-      <c r="L146" s="9"/>
-      <c r="M146" s="9"/>
-      <c r="N146" s="9"/>
-      <c r="O146" s="9"/>
-      <c r="P146" s="9"/>
-      <c r="Q146" s="9"/>
+    <row r="146" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
@@ -6575,32 +5601,24 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" customHeight="1" ht="25">
-      <c r="A147" s="9">
-        <v>135</v>
-      </c>
-      <c r="B147" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C147" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I147" s="9"/>
-      <c r="J147" s="9"/>
-      <c r="K147" s="9"/>
-      <c r="L147" s="9"/>
-      <c r="M147" s="9"/>
-      <c r="N147" s="9"/>
-      <c r="O147" s="9"/>
-      <c r="P147" s="9"/>
-      <c r="Q147" s="9"/>
+    <row r="147" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
@@ -6610,32 +5628,24 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" customHeight="1" ht="25">
-      <c r="A148" s="9">
-        <v>136</v>
-      </c>
-      <c r="B148" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C148" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I148" s="9"/>
-      <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
-      <c r="L148" s="9"/>
-      <c r="M148" s="9"/>
-      <c r="N148" s="9"/>
-      <c r="O148" s="9"/>
-      <c r="P148" s="9"/>
-      <c r="Q148" s="9"/>
+    <row r="148" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
@@ -6645,32 +5655,24 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" customHeight="1" ht="25">
-      <c r="A149" s="9">
-        <v>137</v>
-      </c>
-      <c r="B149" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C149" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I149" s="9"/>
-      <c r="J149" s="9"/>
-      <c r="K149" s="9"/>
-      <c r="L149" s="9"/>
-      <c r="M149" s="9"/>
-      <c r="N149" s="9"/>
-      <c r="O149" s="9"/>
-      <c r="P149" s="9"/>
-      <c r="Q149" s="9"/>
+    <row r="149" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
@@ -6680,32 +5682,24 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" customHeight="1" ht="25">
-      <c r="A150" s="9">
-        <v>138</v>
-      </c>
-      <c r="B150" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C150" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I150" s="9"/>
-      <c r="J150" s="9"/>
-      <c r="K150" s="9"/>
-      <c r="L150" s="9"/>
-      <c r="M150" s="9"/>
-      <c r="N150" s="9"/>
-      <c r="O150" s="9"/>
-      <c r="P150" s="9"/>
-      <c r="Q150" s="9"/>
+    <row r="150" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
@@ -6715,32 +5709,24 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" customHeight="1" ht="10">
-      <c r="A151" s="9">
-        <v>139</v>
-      </c>
-      <c r="B151" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C151" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
-      <c r="K151" s="9"/>
-      <c r="L151" s="9"/>
-      <c r="M151" s="9"/>
-      <c r="N151" s="9"/>
-      <c r="O151" s="9"/>
-      <c r="P151" s="9"/>
-      <c r="Q151" s="9"/>
+    <row r="151" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
@@ -6750,32 +5736,24 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" customHeight="1" ht="25">
-      <c r="A152" s="9">
-        <v>140</v>
-      </c>
-      <c r="B152" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C152" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I152" s="9"/>
-      <c r="J152" s="9"/>
-      <c r="K152" s="9"/>
-      <c r="L152" s="9"/>
-      <c r="M152" s="9"/>
-      <c r="N152" s="9"/>
-      <c r="O152" s="9"/>
-      <c r="P152" s="9"/>
-      <c r="Q152" s="9"/>
+    <row r="152" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
@@ -6785,32 +5763,24 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" customHeight="1" ht="25">
-      <c r="A153" s="9">
-        <v>141</v>
-      </c>
-      <c r="B153" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C153" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I153" s="9"/>
-      <c r="J153" s="9"/>
-      <c r="K153" s="9"/>
-      <c r="L153" s="9"/>
-      <c r="M153" s="9"/>
-      <c r="N153" s="9"/>
-      <c r="O153" s="9"/>
-      <c r="P153" s="9"/>
-      <c r="Q153" s="9"/>
+    <row r="153" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
@@ -6820,32 +5790,24 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" customHeight="1" ht="25">
-      <c r="A154" s="9">
-        <v>142</v>
-      </c>
-      <c r="B154" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C154" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I154" s="9"/>
-      <c r="J154" s="9"/>
-      <c r="K154" s="9"/>
-      <c r="L154" s="9"/>
-      <c r="M154" s="9"/>
-      <c r="N154" s="9"/>
-      <c r="O154" s="9"/>
-      <c r="P154" s="9"/>
-      <c r="Q154" s="9"/>
+    <row r="154" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
@@ -6855,32 +5817,24 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" customHeight="1" ht="25">
-      <c r="A155" s="9">
-        <v>143</v>
-      </c>
-      <c r="B155" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C155" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
-      <c r="K155" s="9"/>
-      <c r="L155" s="9"/>
-      <c r="M155" s="9"/>
-      <c r="N155" s="9"/>
-      <c r="O155" s="9"/>
-      <c r="P155" s="9"/>
-      <c r="Q155" s="9"/>
+    <row r="155" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
@@ -6890,32 +5844,24 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" customHeight="1" ht="25">
-      <c r="A156" s="9">
-        <v>144</v>
-      </c>
-      <c r="B156" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C156" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I156" s="9"/>
-      <c r="J156" s="9"/>
-      <c r="K156" s="9"/>
-      <c r="L156" s="9"/>
-      <c r="M156" s="9"/>
-      <c r="N156" s="9"/>
-      <c r="O156" s="9"/>
-      <c r="P156" s="9"/>
-      <c r="Q156" s="9"/>
+    <row r="156" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
@@ -6925,32 +5871,24 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" customHeight="1" ht="25">
-      <c r="A157" s="9">
-        <v>145</v>
-      </c>
-      <c r="B157" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C157" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I157" s="9"/>
-      <c r="J157" s="9"/>
-      <c r="K157" s="9"/>
-      <c r="L157" s="9"/>
-      <c r="M157" s="9"/>
-      <c r="N157" s="9"/>
-      <c r="O157" s="9"/>
-      <c r="P157" s="9"/>
-      <c r="Q157" s="9"/>
+    <row r="157" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
@@ -6960,32 +5898,24 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" customHeight="1" ht="25">
-      <c r="A158" s="9">
-        <v>146</v>
-      </c>
-      <c r="B158" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C158" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I158" s="9"/>
-      <c r="J158" s="9"/>
-      <c r="K158" s="9"/>
-      <c r="L158" s="9"/>
-      <c r="M158" s="9"/>
-      <c r="N158" s="9"/>
-      <c r="O158" s="9"/>
-      <c r="P158" s="9"/>
-      <c r="Q158" s="9"/>
+    <row r="158" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
@@ -6995,32 +5925,24 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" customHeight="1" ht="25">
-      <c r="A159" s="9">
-        <v>147</v>
-      </c>
-      <c r="B159" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C159" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
-      <c r="K159" s="9"/>
-      <c r="L159" s="9"/>
-      <c r="M159" s="9"/>
-      <c r="N159" s="9"/>
-      <c r="O159" s="9"/>
-      <c r="P159" s="9"/>
-      <c r="Q159" s="9"/>
+    <row r="159" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
@@ -7030,32 +5952,24 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" customHeight="1" ht="25">
-      <c r="A160" s="9">
-        <v>148</v>
-      </c>
-      <c r="B160" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C160" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
-      <c r="L160" s="9"/>
-      <c r="M160" s="9"/>
-      <c r="N160" s="9"/>
-      <c r="O160" s="9"/>
-      <c r="P160" s="9"/>
-      <c r="Q160" s="9"/>
+    <row r="160" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
@@ -7065,32 +5979,24 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" customHeight="1" ht="25">
-      <c r="A161" s="9">
-        <v>149</v>
-      </c>
-      <c r="B161" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C161" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
-      <c r="M161" s="9"/>
-      <c r="N161" s="9"/>
-      <c r="O161" s="9"/>
-      <c r="P161" s="9"/>
-      <c r="Q161" s="9"/>
+    <row r="161" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
@@ -7100,32 +6006,24 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" customHeight="1" ht="25">
-      <c r="A162" s="9">
-        <v>150</v>
-      </c>
-      <c r="B162" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C162" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
-      <c r="K162" s="9"/>
-      <c r="L162" s="9"/>
-      <c r="M162" s="9"/>
-      <c r="N162" s="9"/>
-      <c r="O162" s="9"/>
-      <c r="P162" s="9"/>
-      <c r="Q162" s="9"/>
+    <row r="162" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
@@ -7135,32 +6033,24 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" customHeight="1" ht="25">
-      <c r="A163" s="9">
-        <v>151</v>
-      </c>
-      <c r="B163" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C163" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
-      <c r="K163" s="9"/>
-      <c r="L163" s="9"/>
-      <c r="M163" s="9"/>
-      <c r="N163" s="9"/>
-      <c r="O163" s="9"/>
-      <c r="P163" s="9"/>
-      <c r="Q163" s="9"/>
+    <row r="163" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
@@ -7170,32 +6060,24 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" customHeight="1" ht="25">
-      <c r="A164" s="9">
-        <v>152</v>
-      </c>
-      <c r="B164" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C164" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
-      <c r="K164" s="9"/>
-      <c r="L164" s="9"/>
-      <c r="M164" s="9"/>
-      <c r="N164" s="9"/>
-      <c r="O164" s="9"/>
-      <c r="P164" s="9"/>
-      <c r="Q164" s="9"/>
+    <row r="164" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
@@ -7205,32 +6087,24 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" customHeight="1" ht="25">
-      <c r="A165" s="9">
-        <v>153</v>
-      </c>
-      <c r="B165" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C165" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
-      <c r="K165" s="9"/>
-      <c r="L165" s="9"/>
-      <c r="M165" s="9"/>
-      <c r="N165" s="9"/>
-      <c r="O165" s="9"/>
-      <c r="P165" s="9"/>
-      <c r="Q165" s="9"/>
+    <row r="165" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
@@ -7240,32 +6114,24 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" customHeight="1" ht="25">
-      <c r="A166" s="9">
-        <v>154</v>
-      </c>
-      <c r="B166" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C166" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
-      <c r="K166" s="9"/>
-      <c r="L166" s="9"/>
-      <c r="M166" s="9"/>
-      <c r="N166" s="9"/>
-      <c r="O166" s="9"/>
-      <c r="P166" s="9"/>
-      <c r="Q166" s="9"/>
+    <row r="166" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
@@ -7275,32 +6141,24 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" customHeight="1" ht="25">
-      <c r="A167" s="9">
-        <v>155</v>
-      </c>
-      <c r="B167" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C167" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="9"/>
-      <c r="L167" s="9"/>
-      <c r="M167" s="9"/>
-      <c r="N167" s="9"/>
-      <c r="O167" s="9"/>
-      <c r="P167" s="9"/>
-      <c r="Q167" s="9"/>
+    <row r="167" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
@@ -7310,32 +6168,24 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" customHeight="1" ht="25">
-      <c r="A168" s="9">
-        <v>156</v>
-      </c>
-      <c r="B168" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C168" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I168" s="9"/>
-      <c r="J168" s="9"/>
-      <c r="K168" s="9"/>
-      <c r="L168" s="9"/>
-      <c r="M168" s="9"/>
-      <c r="N168" s="9"/>
-      <c r="O168" s="9"/>
-      <c r="P168" s="9"/>
-      <c r="Q168" s="9"/>
+    <row r="168" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
@@ -7345,32 +6195,24 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" customHeight="1" ht="25">
-      <c r="A169" s="9">
-        <v>157</v>
-      </c>
-      <c r="B169" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C169" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I169" s="9"/>
-      <c r="J169" s="9"/>
-      <c r="K169" s="9"/>
-      <c r="L169" s="9"/>
-      <c r="M169" s="9"/>
-      <c r="N169" s="9"/>
-      <c r="O169" s="9"/>
-      <c r="P169" s="9"/>
-      <c r="Q169" s="9"/>
+    <row r="169" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
@@ -7380,32 +6222,24 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" customHeight="1" ht="25">
-      <c r="A170" s="9">
-        <v>158</v>
-      </c>
-      <c r="B170" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C170" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
-      <c r="K170" s="9"/>
-      <c r="L170" s="9"/>
-      <c r="M170" s="9"/>
-      <c r="N170" s="9"/>
-      <c r="O170" s="9"/>
-      <c r="P170" s="9"/>
-      <c r="Q170" s="9"/>
+    <row r="170" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
@@ -7415,32 +6249,24 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" customHeight="1" ht="25">
-      <c r="A171" s="9">
-        <v>159</v>
-      </c>
-      <c r="B171" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C171" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I171" s="9"/>
-      <c r="J171" s="9"/>
-      <c r="K171" s="9"/>
-      <c r="L171" s="9"/>
-      <c r="M171" s="9"/>
-      <c r="N171" s="9"/>
-      <c r="O171" s="9"/>
-      <c r="P171" s="9"/>
-      <c r="Q171" s="9"/>
+    <row r="171" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
@@ -7450,32 +6276,24 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" customHeight="1" ht="25">
-      <c r="A172" s="9">
-        <v>160</v>
-      </c>
-      <c r="B172" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C172" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I172" s="9"/>
-      <c r="J172" s="9"/>
-      <c r="K172" s="9"/>
-      <c r="L172" s="9"/>
-      <c r="M172" s="9"/>
-      <c r="N172" s="9"/>
-      <c r="O172" s="9"/>
-      <c r="P172" s="9"/>
-      <c r="Q172" s="9"/>
+    <row r="172" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
@@ -7485,32 +6303,24 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" customHeight="1" ht="25">
-      <c r="A173" s="9">
-        <v>161</v>
-      </c>
-      <c r="B173" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C173" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I173" s="9"/>
-      <c r="J173" s="9"/>
-      <c r="K173" s="9"/>
-      <c r="L173" s="9"/>
-      <c r="M173" s="9"/>
-      <c r="N173" s="9"/>
-      <c r="O173" s="9"/>
-      <c r="P173" s="9"/>
-      <c r="Q173" s="9"/>
+    <row r="173" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
@@ -7520,32 +6330,24 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" customHeight="1" ht="25">
-      <c r="A174" s="9">
-        <v>162</v>
-      </c>
-      <c r="B174" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C174" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I174" s="9"/>
-      <c r="J174" s="9"/>
-      <c r="K174" s="9"/>
-      <c r="L174" s="9"/>
-      <c r="M174" s="9"/>
-      <c r="N174" s="9"/>
-      <c r="O174" s="9"/>
-      <c r="P174" s="9"/>
-      <c r="Q174" s="9"/>
+    <row r="174" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
@@ -7555,32 +6357,24 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" customHeight="1" ht="25">
-      <c r="A175" s="9">
-        <v>163</v>
-      </c>
-      <c r="B175" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C175" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I175" s="9"/>
-      <c r="J175" s="9"/>
-      <c r="K175" s="9"/>
-      <c r="L175" s="9"/>
-      <c r="M175" s="9"/>
-      <c r="N175" s="9"/>
-      <c r="O175" s="9"/>
-      <c r="P175" s="9"/>
-      <c r="Q175" s="9"/>
+    <row r="175" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
@@ -7590,32 +6384,24 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" customHeight="1" ht="25">
-      <c r="A176" s="9">
-        <v>164</v>
-      </c>
-      <c r="B176" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C176" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I176" s="9"/>
-      <c r="J176" s="9"/>
-      <c r="K176" s="9"/>
-      <c r="L176" s="9"/>
-      <c r="M176" s="9"/>
-      <c r="N176" s="9"/>
-      <c r="O176" s="9"/>
-      <c r="P176" s="9"/>
-      <c r="Q176" s="9"/>
+    <row r="176" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
@@ -7625,32 +6411,24 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" customHeight="1" ht="25">
-      <c r="A177" s="9">
-        <v>165</v>
-      </c>
-      <c r="B177" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C177" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D177" s="9"/>
-      <c r="E177" s="9"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I177" s="9"/>
-      <c r="J177" s="9"/>
-      <c r="K177" s="9"/>
-      <c r="L177" s="9"/>
-      <c r="M177" s="9"/>
-      <c r="N177" s="9"/>
-      <c r="O177" s="9"/>
-      <c r="P177" s="9"/>
-      <c r="Q177" s="9"/>
+    <row r="177" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
@@ -7660,32 +6438,24 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" customHeight="1" ht="25">
-      <c r="A178" s="9">
-        <v>166</v>
-      </c>
-      <c r="B178" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C178" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I178" s="9"/>
-      <c r="J178" s="9"/>
-      <c r="K178" s="9"/>
-      <c r="L178" s="9"/>
-      <c r="M178" s="9"/>
-      <c r="N178" s="9"/>
-      <c r="O178" s="9"/>
-      <c r="P178" s="9"/>
-      <c r="Q178" s="9"/>
+    <row r="178" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
@@ -7695,32 +6465,24 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" customHeight="1" ht="25">
-      <c r="A179" s="9">
-        <v>167</v>
-      </c>
-      <c r="B179" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C179" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
-      <c r="F179" s="9"/>
-      <c r="G179" s="9"/>
-      <c r="H179" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I179" s="9"/>
-      <c r="J179" s="9"/>
-      <c r="K179" s="9"/>
-      <c r="L179" s="9"/>
-      <c r="M179" s="9"/>
-      <c r="N179" s="9"/>
-      <c r="O179" s="9"/>
-      <c r="P179" s="9"/>
-      <c r="Q179" s="9"/>
+    <row r="179" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
@@ -7730,32 +6492,24 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" customHeight="1" ht="25">
-      <c r="A180" s="9">
-        <v>168</v>
-      </c>
-      <c r="B180" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C180" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D180" s="9"/>
-      <c r="E180" s="9"/>
-      <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
-      <c r="H180" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I180" s="9"/>
-      <c r="J180" s="9"/>
-      <c r="K180" s="9"/>
-      <c r="L180" s="9"/>
-      <c r="M180" s="9"/>
-      <c r="N180" s="9"/>
-      <c r="O180" s="9"/>
-      <c r="P180" s="9"/>
-      <c r="Q180" s="9"/>
+    <row r="180" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
@@ -7765,32 +6519,24 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" customHeight="1" ht="25">
-      <c r="A181" s="9">
-        <v>169</v>
-      </c>
-      <c r="B181" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C181" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D181" s="9"/>
-      <c r="E181" s="9"/>
-      <c r="F181" s="9"/>
-      <c r="G181" s="9"/>
-      <c r="H181" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I181" s="9"/>
-      <c r="J181" s="9"/>
-      <c r="K181" s="9"/>
-      <c r="L181" s="9"/>
-      <c r="M181" s="9"/>
-      <c r="N181" s="9"/>
-      <c r="O181" s="9"/>
-      <c r="P181" s="9"/>
-      <c r="Q181" s="9"/>
+    <row r="181" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
@@ -7800,32 +6546,24 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" customHeight="1" ht="25">
-      <c r="A182" s="9">
-        <v>170</v>
-      </c>
-      <c r="B182" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C182" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D182" s="9"/>
-      <c r="E182" s="9"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I182" s="9"/>
-      <c r="J182" s="9"/>
-      <c r="K182" s="9"/>
-      <c r="L182" s="9"/>
-      <c r="M182" s="9"/>
-      <c r="N182" s="9"/>
-      <c r="O182" s="9"/>
-      <c r="P182" s="9"/>
-      <c r="Q182" s="9"/>
+    <row r="182" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
@@ -7835,32 +6573,24 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" customHeight="1" ht="25">
-      <c r="A183" s="9">
-        <v>171</v>
-      </c>
-      <c r="B183" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C183" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9"/>
-      <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
-      <c r="H183" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I183" s="9"/>
-      <c r="J183" s="9"/>
-      <c r="K183" s="9"/>
-      <c r="L183" s="9"/>
-      <c r="M183" s="9"/>
-      <c r="N183" s="9"/>
-      <c r="O183" s="9"/>
-      <c r="P183" s="9"/>
-      <c r="Q183" s="9"/>
+    <row r="183" spans="1:25" customHeight="1" ht="14.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
@@ -29387,7 +28117,7 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D26:G26"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.59055118110236" right="0.31496062992126" top="0.70866141732283" bottom="0.51181102362205" header="0" footer="0"/>
